--- a/Data/IMUReadingsClip/DefenderDrag2bNeutral.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag2bNeutral.xlsx
@@ -15,7 +15,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -83,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,14 +141,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,37 +180,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -17224,19 +17276,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">

--- a/Data/IMUReadingsClip/DefenderDrag2bNeutral.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag2bNeutral.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="accel" sheetId="2" r:id="rId3"/>
     <sheet name="orientation" sheetId="3" r:id="rId5"/>
+    <sheet name="gyro" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -112,6 +113,69 @@
   <si>
     <t>pitchDeg</t>
   </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,16 +207,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,37 +250,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -17276,19 +17346,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -25572,4 +25642,8316 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E488"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="20.16796875" customWidth="true"/>
+    <col min="3" max="3" width="7.7109375" customWidth="true"/>
+    <col min="4" max="4" width="7.07421875" customWidth="true"/>
+    <col min="5" max="5" width="8.44140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1676592100002</v>
+      </c>
+      <c r="B2" s="0">
+        <v>119603632202587</v>
+      </c>
+      <c r="C2" s="0">
+        <v>77</v>
+      </c>
+      <c r="D2" s="0">
+        <v>57</v>
+      </c>
+      <c r="E2" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1676592100011</v>
+      </c>
+      <c r="B3" s="0">
+        <v>119603641182384</v>
+      </c>
+      <c r="C3" s="0">
+        <v>77</v>
+      </c>
+      <c r="D3" s="0">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1676592100019</v>
+      </c>
+      <c r="B4" s="0">
+        <v>119603650149363</v>
+      </c>
+      <c r="C4" s="0">
+        <v>77</v>
+      </c>
+      <c r="D4" s="0">
+        <v>57</v>
+      </c>
+      <c r="E4" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1676592100029</v>
+      </c>
+      <c r="B5" s="0">
+        <v>119603659128429</v>
+      </c>
+      <c r="C5" s="0">
+        <v>77</v>
+      </c>
+      <c r="D5" s="0">
+        <v>57</v>
+      </c>
+      <c r="E5" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1676592100038</v>
+      </c>
+      <c r="B6" s="0">
+        <v>119603668110363</v>
+      </c>
+      <c r="C6" s="0">
+        <v>77</v>
+      </c>
+      <c r="D6" s="0">
+        <v>57</v>
+      </c>
+      <c r="E6" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1676592100047</v>
+      </c>
+      <c r="B7" s="0">
+        <v>119603677104869</v>
+      </c>
+      <c r="C7" s="0">
+        <v>77</v>
+      </c>
+      <c r="D7" s="0">
+        <v>57</v>
+      </c>
+      <c r="E7" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1676592100056</v>
+      </c>
+      <c r="B8" s="0">
+        <v>119603686074291</v>
+      </c>
+      <c r="C8" s="0">
+        <v>77</v>
+      </c>
+      <c r="D8" s="0">
+        <v>57</v>
+      </c>
+      <c r="E8" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1676592100065</v>
+      </c>
+      <c r="B9" s="0">
+        <v>119603695063610</v>
+      </c>
+      <c r="C9" s="0">
+        <v>77</v>
+      </c>
+      <c r="D9" s="0">
+        <v>57</v>
+      </c>
+      <c r="E9" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1676592100074</v>
+      </c>
+      <c r="B10" s="0">
+        <v>119603704040965</v>
+      </c>
+      <c r="C10" s="0">
+        <v>77</v>
+      </c>
+      <c r="D10" s="0">
+        <v>57</v>
+      </c>
+      <c r="E10" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1676592100082</v>
+      </c>
+      <c r="B11" s="0">
+        <v>119603713020152</v>
+      </c>
+      <c r="C11" s="0">
+        <v>77</v>
+      </c>
+      <c r="D11" s="0">
+        <v>57</v>
+      </c>
+      <c r="E11" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1676592100091</v>
+      </c>
+      <c r="B12" s="0">
+        <v>119603722003917</v>
+      </c>
+      <c r="C12" s="0">
+        <v>77</v>
+      </c>
+      <c r="D12" s="0">
+        <v>57</v>
+      </c>
+      <c r="E12" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>1676592100100</v>
+      </c>
+      <c r="B13" s="0">
+        <v>119603730981456</v>
+      </c>
+      <c r="C13" s="0">
+        <v>77</v>
+      </c>
+      <c r="D13" s="0">
+        <v>57</v>
+      </c>
+      <c r="E13" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1676592100108</v>
+      </c>
+      <c r="B14" s="0">
+        <v>119603739958568</v>
+      </c>
+      <c r="C14" s="0">
+        <v>77</v>
+      </c>
+      <c r="D14" s="0">
+        <v>57</v>
+      </c>
+      <c r="E14" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>1676592100117</v>
+      </c>
+      <c r="B15" s="0">
+        <v>119603748927807</v>
+      </c>
+      <c r="C15" s="0">
+        <v>77</v>
+      </c>
+      <c r="D15" s="0">
+        <v>57</v>
+      </c>
+      <c r="E15" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1676592100126</v>
+      </c>
+      <c r="B16" s="0">
+        <v>119603757911510</v>
+      </c>
+      <c r="C16" s="0">
+        <v>77</v>
+      </c>
+      <c r="D16" s="0">
+        <v>57</v>
+      </c>
+      <c r="E16" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1676592100135</v>
+      </c>
+      <c r="B17" s="0">
+        <v>119603766901012</v>
+      </c>
+      <c r="C17" s="0">
+        <v>77</v>
+      </c>
+      <c r="D17" s="0">
+        <v>57</v>
+      </c>
+      <c r="E17" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1676592100145</v>
+      </c>
+      <c r="B18" s="0">
+        <v>119603775866466</v>
+      </c>
+      <c r="C18" s="0">
+        <v>77</v>
+      </c>
+      <c r="D18" s="0">
+        <v>57</v>
+      </c>
+      <c r="E18" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1676592100154</v>
+      </c>
+      <c r="B19" s="0">
+        <v>119603784847545</v>
+      </c>
+      <c r="C19" s="0">
+        <v>77</v>
+      </c>
+      <c r="D19" s="0">
+        <v>57</v>
+      </c>
+      <c r="E19" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>1676592100163</v>
+      </c>
+      <c r="B20" s="0">
+        <v>119603793831614</v>
+      </c>
+      <c r="C20" s="0">
+        <v>77</v>
+      </c>
+      <c r="D20" s="0">
+        <v>57</v>
+      </c>
+      <c r="E20" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>1676592100172</v>
+      </c>
+      <c r="B21" s="0">
+        <v>119603802809214</v>
+      </c>
+      <c r="C21" s="0">
+        <v>77</v>
+      </c>
+      <c r="D21" s="0">
+        <v>57</v>
+      </c>
+      <c r="E21" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>1676592100181</v>
+      </c>
+      <c r="B22" s="0">
+        <v>119603811790416</v>
+      </c>
+      <c r="C22" s="0">
+        <v>76</v>
+      </c>
+      <c r="D22" s="0">
+        <v>57</v>
+      </c>
+      <c r="E22" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>1676592100189</v>
+      </c>
+      <c r="B23" s="0">
+        <v>119603820769664</v>
+      </c>
+      <c r="C23" s="0">
+        <v>76</v>
+      </c>
+      <c r="D23" s="0">
+        <v>57</v>
+      </c>
+      <c r="E23" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>1676592100199</v>
+      </c>
+      <c r="B24" s="0">
+        <v>119603829751964</v>
+      </c>
+      <c r="C24" s="0">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0">
+        <v>57</v>
+      </c>
+      <c r="E24" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>1676592100207</v>
+      </c>
+      <c r="B25" s="0">
+        <v>119603838732982</v>
+      </c>
+      <c r="C25" s="0">
+        <v>76</v>
+      </c>
+      <c r="D25" s="0">
+        <v>57</v>
+      </c>
+      <c r="E25" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>1676592100217</v>
+      </c>
+      <c r="B26" s="0">
+        <v>119603847712108</v>
+      </c>
+      <c r="C26" s="0">
+        <v>76</v>
+      </c>
+      <c r="D26" s="0">
+        <v>57</v>
+      </c>
+      <c r="E26" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>1676592100226</v>
+      </c>
+      <c r="B27" s="0">
+        <v>119603856691600</v>
+      </c>
+      <c r="C27" s="0">
+        <v>76</v>
+      </c>
+      <c r="D27" s="0">
+        <v>57</v>
+      </c>
+      <c r="E27" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>1676592100235</v>
+      </c>
+      <c r="B28" s="0">
+        <v>119603865674510</v>
+      </c>
+      <c r="C28" s="0">
+        <v>76</v>
+      </c>
+      <c r="D28" s="0">
+        <v>57</v>
+      </c>
+      <c r="E28" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>1676592100243</v>
+      </c>
+      <c r="B29" s="0">
+        <v>119603874650157</v>
+      </c>
+      <c r="C29" s="0">
+        <v>76</v>
+      </c>
+      <c r="D29" s="0">
+        <v>57</v>
+      </c>
+      <c r="E29" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>1676592100252</v>
+      </c>
+      <c r="B30" s="0">
+        <v>119603883627453</v>
+      </c>
+      <c r="C30" s="0">
+        <v>76</v>
+      </c>
+      <c r="D30" s="0">
+        <v>57</v>
+      </c>
+      <c r="E30" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>1676592100261</v>
+      </c>
+      <c r="B31" s="0">
+        <v>119603892609142</v>
+      </c>
+      <c r="C31" s="0">
+        <v>76</v>
+      </c>
+      <c r="D31" s="0">
+        <v>57</v>
+      </c>
+      <c r="E31" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1676592100271</v>
+      </c>
+      <c r="B32" s="0">
+        <v>119603901591014</v>
+      </c>
+      <c r="C32" s="0">
+        <v>76</v>
+      </c>
+      <c r="D32" s="0">
+        <v>57</v>
+      </c>
+      <c r="E32" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>1676592100279</v>
+      </c>
+      <c r="B33" s="0">
+        <v>119603910571483</v>
+      </c>
+      <c r="C33" s="0">
+        <v>76</v>
+      </c>
+      <c r="D33" s="0">
+        <v>57</v>
+      </c>
+      <c r="E33" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>1676592100288</v>
+      </c>
+      <c r="B34" s="0">
+        <v>119603919548656</v>
+      </c>
+      <c r="C34" s="0">
+        <v>76</v>
+      </c>
+      <c r="D34" s="0">
+        <v>57</v>
+      </c>
+      <c r="E34" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>1676592100297</v>
+      </c>
+      <c r="B35" s="0">
+        <v>119603928529186</v>
+      </c>
+      <c r="C35" s="0">
+        <v>76</v>
+      </c>
+      <c r="D35" s="0">
+        <v>57</v>
+      </c>
+      <c r="E35" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>1676592100306</v>
+      </c>
+      <c r="B36" s="0">
+        <v>119603937513866</v>
+      </c>
+      <c r="C36" s="0">
+        <v>76</v>
+      </c>
+      <c r="D36" s="0">
+        <v>57</v>
+      </c>
+      <c r="E36" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>1676592100316</v>
+      </c>
+      <c r="B37" s="0">
+        <v>119603946489940</v>
+      </c>
+      <c r="C37" s="0">
+        <v>76</v>
+      </c>
+      <c r="D37" s="0">
+        <v>57</v>
+      </c>
+      <c r="E37" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>1676592100325</v>
+      </c>
+      <c r="B38" s="0">
+        <v>119603955468822</v>
+      </c>
+      <c r="C38" s="0">
+        <v>76</v>
+      </c>
+      <c r="D38" s="0">
+        <v>57</v>
+      </c>
+      <c r="E38" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>1676592100334</v>
+      </c>
+      <c r="B39" s="0">
+        <v>119603964443187</v>
+      </c>
+      <c r="C39" s="0">
+        <v>76</v>
+      </c>
+      <c r="D39" s="0">
+        <v>57</v>
+      </c>
+      <c r="E39" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>1676592100342</v>
+      </c>
+      <c r="B40" s="0">
+        <v>119603973431346</v>
+      </c>
+      <c r="C40" s="0">
+        <v>76</v>
+      </c>
+      <c r="D40" s="0">
+        <v>57</v>
+      </c>
+      <c r="E40" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>1676592100351</v>
+      </c>
+      <c r="B41" s="0">
+        <v>119603982402111</v>
+      </c>
+      <c r="C41" s="0">
+        <v>76</v>
+      </c>
+      <c r="D41" s="0">
+        <v>57</v>
+      </c>
+      <c r="E41" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>1676592100361</v>
+      </c>
+      <c r="B42" s="0">
+        <v>119603991391063</v>
+      </c>
+      <c r="C42" s="0">
+        <v>76</v>
+      </c>
+      <c r="D42" s="0">
+        <v>57</v>
+      </c>
+      <c r="E42" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>1676592100369</v>
+      </c>
+      <c r="B43" s="0">
+        <v>119604000368602</v>
+      </c>
+      <c r="C43" s="0">
+        <v>76</v>
+      </c>
+      <c r="D43" s="0">
+        <v>57</v>
+      </c>
+      <c r="E43" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>1676592100378</v>
+      </c>
+      <c r="B44" s="0">
+        <v>119604009350719</v>
+      </c>
+      <c r="C44" s="0">
+        <v>76</v>
+      </c>
+      <c r="D44" s="0">
+        <v>57</v>
+      </c>
+      <c r="E44" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>1676592100387</v>
+      </c>
+      <c r="B45" s="0">
+        <v>119604018328258</v>
+      </c>
+      <c r="C45" s="0">
+        <v>76</v>
+      </c>
+      <c r="D45" s="0">
+        <v>57</v>
+      </c>
+      <c r="E45" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>1676592100396</v>
+      </c>
+      <c r="B46" s="0">
+        <v>119604027310130</v>
+      </c>
+      <c r="C46" s="0">
+        <v>76</v>
+      </c>
+      <c r="D46" s="0">
+        <v>57</v>
+      </c>
+      <c r="E46" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>1676592100405</v>
+      </c>
+      <c r="B47" s="0">
+        <v>119604036290904</v>
+      </c>
+      <c r="C47" s="0">
+        <v>76</v>
+      </c>
+      <c r="D47" s="0">
+        <v>57</v>
+      </c>
+      <c r="E47" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>1676592100414</v>
+      </c>
+      <c r="B48" s="0">
+        <v>119604045269359</v>
+      </c>
+      <c r="C48" s="0">
+        <v>76</v>
+      </c>
+      <c r="D48" s="0">
+        <v>57</v>
+      </c>
+      <c r="E48" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>1676592100423</v>
+      </c>
+      <c r="B49" s="0">
+        <v>119604054261729</v>
+      </c>
+      <c r="C49" s="0">
+        <v>77</v>
+      </c>
+      <c r="D49" s="0">
+        <v>57</v>
+      </c>
+      <c r="E49" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>1676592100433</v>
+      </c>
+      <c r="B50" s="0">
+        <v>119604063241588</v>
+      </c>
+      <c r="C50" s="0">
+        <v>77</v>
+      </c>
+      <c r="D50" s="0">
+        <v>57</v>
+      </c>
+      <c r="E50" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>1676592100442</v>
+      </c>
+      <c r="B51" s="0">
+        <v>119604072219005</v>
+      </c>
+      <c r="C51" s="0">
+        <v>77</v>
+      </c>
+      <c r="D51" s="0">
+        <v>57</v>
+      </c>
+      <c r="E51" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>1676592100450</v>
+      </c>
+      <c r="B52" s="0">
+        <v>119604081200206</v>
+      </c>
+      <c r="C52" s="0">
+        <v>78</v>
+      </c>
+      <c r="D52" s="0">
+        <v>57</v>
+      </c>
+      <c r="E52" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>1676592100459</v>
+      </c>
+      <c r="B53" s="0">
+        <v>119604090179149</v>
+      </c>
+      <c r="C53" s="0">
+        <v>78</v>
+      </c>
+      <c r="D53" s="0">
+        <v>57</v>
+      </c>
+      <c r="E53" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>1676592100469</v>
+      </c>
+      <c r="B54" s="0">
+        <v>119604099158641</v>
+      </c>
+      <c r="C54" s="0">
+        <v>78</v>
+      </c>
+      <c r="D54" s="0">
+        <v>57</v>
+      </c>
+      <c r="E54" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>1676592100478</v>
+      </c>
+      <c r="B55" s="0">
+        <v>119604108139904</v>
+      </c>
+      <c r="C55" s="0">
+        <v>79</v>
+      </c>
+      <c r="D55" s="0">
+        <v>57</v>
+      </c>
+      <c r="E55" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>1676592100486</v>
+      </c>
+      <c r="B56" s="0">
+        <v>119604117116893</v>
+      </c>
+      <c r="C56" s="0">
+        <v>79</v>
+      </c>
+      <c r="D56" s="0">
+        <v>57</v>
+      </c>
+      <c r="E56" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>1676592100496</v>
+      </c>
+      <c r="B57" s="0">
+        <v>119604126098522</v>
+      </c>
+      <c r="C57" s="0">
+        <v>80</v>
+      </c>
+      <c r="D57" s="0">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>1676592100504</v>
+      </c>
+      <c r="B58" s="0">
+        <v>119604135081554</v>
+      </c>
+      <c r="C58" s="0">
+        <v>80</v>
+      </c>
+      <c r="D58" s="0">
+        <v>57</v>
+      </c>
+      <c r="E58" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>1676592100514</v>
+      </c>
+      <c r="B59" s="0">
+        <v>119604144058605</v>
+      </c>
+      <c r="C59" s="0">
+        <v>81</v>
+      </c>
+      <c r="D59" s="0">
+        <v>57</v>
+      </c>
+      <c r="E59" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>1676592100522</v>
+      </c>
+      <c r="B60" s="0">
+        <v>119604153036937</v>
+      </c>
+      <c r="C60" s="0">
+        <v>81</v>
+      </c>
+      <c r="D60" s="0">
+        <v>57</v>
+      </c>
+      <c r="E60" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>1676592100532</v>
+      </c>
+      <c r="B61" s="0">
+        <v>119604162018627</v>
+      </c>
+      <c r="C61" s="0">
+        <v>82</v>
+      </c>
+      <c r="D61" s="0">
+        <v>58</v>
+      </c>
+      <c r="E61" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>1676592100540</v>
+      </c>
+      <c r="B62" s="0">
+        <v>119604170997875</v>
+      </c>
+      <c r="C62" s="0">
+        <v>82</v>
+      </c>
+      <c r="D62" s="0">
+        <v>58</v>
+      </c>
+      <c r="E62" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>1676592100549</v>
+      </c>
+      <c r="B63" s="0">
+        <v>119604179978160</v>
+      </c>
+      <c r="C63" s="0">
+        <v>82</v>
+      </c>
+      <c r="D63" s="0">
+        <v>58</v>
+      </c>
+      <c r="E63" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>1676592100558</v>
+      </c>
+      <c r="B64" s="0">
+        <v>119604188959545</v>
+      </c>
+      <c r="C64" s="0">
+        <v>82</v>
+      </c>
+      <c r="D64" s="0">
+        <v>58</v>
+      </c>
+      <c r="E64" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>1676592100567</v>
+      </c>
+      <c r="B65" s="0">
+        <v>119604197926159</v>
+      </c>
+      <c r="C65" s="0">
+        <v>82</v>
+      </c>
+      <c r="D65" s="0">
+        <v>58</v>
+      </c>
+      <c r="E65" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>1676592100575</v>
+      </c>
+      <c r="B66" s="0">
+        <v>119604206902050</v>
+      </c>
+      <c r="C66" s="0">
+        <v>82</v>
+      </c>
+      <c r="D66" s="0">
+        <v>58</v>
+      </c>
+      <c r="E66" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>1676592100584</v>
+      </c>
+      <c r="B67" s="0">
+        <v>119604215898997</v>
+      </c>
+      <c r="C67" s="0">
+        <v>81</v>
+      </c>
+      <c r="D67" s="0">
+        <v>58</v>
+      </c>
+      <c r="E67" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>1676592100593</v>
+      </c>
+      <c r="B68" s="0">
+        <v>119604224879161</v>
+      </c>
+      <c r="C68" s="0">
+        <v>80</v>
+      </c>
+      <c r="D68" s="0">
+        <v>58</v>
+      </c>
+      <c r="E68" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>1676592100603</v>
+      </c>
+      <c r="B69" s="0">
+        <v>119604233860668</v>
+      </c>
+      <c r="C69" s="0">
+        <v>80</v>
+      </c>
+      <c r="D69" s="0">
+        <v>58</v>
+      </c>
+      <c r="E69" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>1676592100612</v>
+      </c>
+      <c r="B70" s="0">
+        <v>119604242825939</v>
+      </c>
+      <c r="C70" s="0">
+        <v>79</v>
+      </c>
+      <c r="D70" s="0">
+        <v>59</v>
+      </c>
+      <c r="E70" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>1676592100621</v>
+      </c>
+      <c r="B71" s="0">
+        <v>119604251817638</v>
+      </c>
+      <c r="C71" s="0">
+        <v>77</v>
+      </c>
+      <c r="D71" s="0">
+        <v>59</v>
+      </c>
+      <c r="E71" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>1676592100630</v>
+      </c>
+      <c r="B72" s="0">
+        <v>119604260798839</v>
+      </c>
+      <c r="C72" s="0">
+        <v>76</v>
+      </c>
+      <c r="D72" s="0">
+        <v>60</v>
+      </c>
+      <c r="E72" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>1676592100638</v>
+      </c>
+      <c r="B73" s="0">
+        <v>119604269777538</v>
+      </c>
+      <c r="C73" s="0">
+        <v>75</v>
+      </c>
+      <c r="D73" s="0">
+        <v>60</v>
+      </c>
+      <c r="E73" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>1676592100648</v>
+      </c>
+      <c r="B74" s="0">
+        <v>119604278757274</v>
+      </c>
+      <c r="C74" s="0">
+        <v>74</v>
+      </c>
+      <c r="D74" s="0">
+        <v>60</v>
+      </c>
+      <c r="E74" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>1676592100656</v>
+      </c>
+      <c r="B75" s="0">
+        <v>119604287737255</v>
+      </c>
+      <c r="C75" s="0">
+        <v>73</v>
+      </c>
+      <c r="D75" s="0">
+        <v>60</v>
+      </c>
+      <c r="E75" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>1676592100665</v>
+      </c>
+      <c r="B76" s="0">
+        <v>119604296718517</v>
+      </c>
+      <c r="C76" s="0">
+        <v>72</v>
+      </c>
+      <c r="D76" s="0">
+        <v>60</v>
+      </c>
+      <c r="E76" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>1676592100674</v>
+      </c>
+      <c r="B77" s="0">
+        <v>119604305697032</v>
+      </c>
+      <c r="C77" s="0">
+        <v>71</v>
+      </c>
+      <c r="D77" s="0">
+        <v>59</v>
+      </c>
+      <c r="E77" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>1676592100684</v>
+      </c>
+      <c r="B78" s="0">
+        <v>119604314675487</v>
+      </c>
+      <c r="C78" s="0">
+        <v>70</v>
+      </c>
+      <c r="D78" s="0">
+        <v>58</v>
+      </c>
+      <c r="E78" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>1676592100693</v>
+      </c>
+      <c r="B79" s="0">
+        <v>119604323656993</v>
+      </c>
+      <c r="C79" s="0">
+        <v>70</v>
+      </c>
+      <c r="D79" s="0">
+        <v>58</v>
+      </c>
+      <c r="E79" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>1676592100701</v>
+      </c>
+      <c r="B80" s="0">
+        <v>119604332639110</v>
+      </c>
+      <c r="C80" s="0">
+        <v>69</v>
+      </c>
+      <c r="D80" s="0">
+        <v>57</v>
+      </c>
+      <c r="E80" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>1676592100710</v>
+      </c>
+      <c r="B81" s="0">
+        <v>119604341616649</v>
+      </c>
+      <c r="C81" s="0">
+        <v>69</v>
+      </c>
+      <c r="D81" s="0">
+        <v>57</v>
+      </c>
+      <c r="E81" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>1676592100719</v>
+      </c>
+      <c r="B82" s="0">
+        <v>119604350596935</v>
+      </c>
+      <c r="C82" s="0">
+        <v>70</v>
+      </c>
+      <c r="D82" s="0">
+        <v>57</v>
+      </c>
+      <c r="E82" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>1676592100728</v>
+      </c>
+      <c r="B83" s="0">
+        <v>119604359576061</v>
+      </c>
+      <c r="C83" s="0">
+        <v>70</v>
+      </c>
+      <c r="D83" s="0">
+        <v>56</v>
+      </c>
+      <c r="E83" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>1676592100738</v>
+      </c>
+      <c r="B84" s="0">
+        <v>119604368558116</v>
+      </c>
+      <c r="C84" s="0">
+        <v>71</v>
+      </c>
+      <c r="D84" s="0">
+        <v>56</v>
+      </c>
+      <c r="E84" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>1676592100747</v>
+      </c>
+      <c r="B85" s="0">
+        <v>119604377537425</v>
+      </c>
+      <c r="C85" s="0">
+        <v>72</v>
+      </c>
+      <c r="D85" s="0">
+        <v>56</v>
+      </c>
+      <c r="E85" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>1676592100755</v>
+      </c>
+      <c r="B86" s="0">
+        <v>119604386503429</v>
+      </c>
+      <c r="C86" s="0">
+        <v>73</v>
+      </c>
+      <c r="D86" s="0">
+        <v>56</v>
+      </c>
+      <c r="E86" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>1676592100765</v>
+      </c>
+      <c r="B87" s="0">
+        <v>119604395496837</v>
+      </c>
+      <c r="C87" s="0">
+        <v>73</v>
+      </c>
+      <c r="D87" s="0">
+        <v>56</v>
+      </c>
+      <c r="E87" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>1676592100773</v>
+      </c>
+      <c r="B88" s="0">
+        <v>119604404473461</v>
+      </c>
+      <c r="C88" s="0">
+        <v>74</v>
+      </c>
+      <c r="D88" s="0">
+        <v>55</v>
+      </c>
+      <c r="E88" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>1676592100782</v>
+      </c>
+      <c r="B89" s="0">
+        <v>119604413456310</v>
+      </c>
+      <c r="C89" s="0">
+        <v>75</v>
+      </c>
+      <c r="D89" s="0">
+        <v>55</v>
+      </c>
+      <c r="E89" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>1676592100792</v>
+      </c>
+      <c r="B90" s="0">
+        <v>119604422433665</v>
+      </c>
+      <c r="C90" s="0">
+        <v>76</v>
+      </c>
+      <c r="D90" s="0">
+        <v>55</v>
+      </c>
+      <c r="E90" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>1676592100801</v>
+      </c>
+      <c r="B91" s="0">
+        <v>119604431413036</v>
+      </c>
+      <c r="C91" s="0">
+        <v>77</v>
+      </c>
+      <c r="D91" s="0">
+        <v>55</v>
+      </c>
+      <c r="E91" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>1676592100809</v>
+      </c>
+      <c r="B92" s="0">
+        <v>119604440397594</v>
+      </c>
+      <c r="C92" s="0">
+        <v>78</v>
+      </c>
+      <c r="D92" s="0">
+        <v>55</v>
+      </c>
+      <c r="E92" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>1676592100818</v>
+      </c>
+      <c r="B93" s="0">
+        <v>119604449375988</v>
+      </c>
+      <c r="C93" s="0">
+        <v>78</v>
+      </c>
+      <c r="D93" s="0">
+        <v>56</v>
+      </c>
+      <c r="E93" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>1676592100827</v>
+      </c>
+      <c r="B94" s="0">
+        <v>119604458356761</v>
+      </c>
+      <c r="C94" s="0">
+        <v>79</v>
+      </c>
+      <c r="D94" s="0">
+        <v>56</v>
+      </c>
+      <c r="E94" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>1676592100836</v>
+      </c>
+      <c r="B95" s="0">
+        <v>119604467335887</v>
+      </c>
+      <c r="C95" s="0">
+        <v>79</v>
+      </c>
+      <c r="D95" s="0">
+        <v>57</v>
+      </c>
+      <c r="E95" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>1676592100846</v>
+      </c>
+      <c r="B96" s="0">
+        <v>119604476315929</v>
+      </c>
+      <c r="C96" s="0">
+        <v>80</v>
+      </c>
+      <c r="D96" s="0">
+        <v>57</v>
+      </c>
+      <c r="E96" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>1676592100855</v>
+      </c>
+      <c r="B97" s="0">
+        <v>119604485295970</v>
+      </c>
+      <c r="C97" s="0">
+        <v>81</v>
+      </c>
+      <c r="D97" s="0">
+        <v>57</v>
+      </c>
+      <c r="E97" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>1676592100863</v>
+      </c>
+      <c r="B98" s="0">
+        <v>119604494275646</v>
+      </c>
+      <c r="C98" s="0">
+        <v>81</v>
+      </c>
+      <c r="D98" s="0">
+        <v>57</v>
+      </c>
+      <c r="E98" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>1676592100872</v>
+      </c>
+      <c r="B99" s="0">
+        <v>119604503255504</v>
+      </c>
+      <c r="C99" s="0">
+        <v>82</v>
+      </c>
+      <c r="D99" s="0">
+        <v>57</v>
+      </c>
+      <c r="E99" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>1676592100882</v>
+      </c>
+      <c r="B100" s="0">
+        <v>119604512237071</v>
+      </c>
+      <c r="C100" s="0">
+        <v>82</v>
+      </c>
+      <c r="D100" s="0">
+        <v>57</v>
+      </c>
+      <c r="E100" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>1676592100890</v>
+      </c>
+      <c r="B101" s="0">
+        <v>119604521215587</v>
+      </c>
+      <c r="C101" s="0">
+        <v>83</v>
+      </c>
+      <c r="D101" s="0">
+        <v>57</v>
+      </c>
+      <c r="E101" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>1676592100899</v>
+      </c>
+      <c r="B102" s="0">
+        <v>119604530183300</v>
+      </c>
+      <c r="C102" s="0">
+        <v>83</v>
+      </c>
+      <c r="D102" s="0">
+        <v>57</v>
+      </c>
+      <c r="E102" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>1676592100909</v>
+      </c>
+      <c r="B103" s="0">
+        <v>119604539175243</v>
+      </c>
+      <c r="C103" s="0">
+        <v>84</v>
+      </c>
+      <c r="D103" s="0">
+        <v>58</v>
+      </c>
+      <c r="E103" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>1676592100917</v>
+      </c>
+      <c r="B104" s="0">
+        <v>119604548144725</v>
+      </c>
+      <c r="C104" s="0">
+        <v>84</v>
+      </c>
+      <c r="D104" s="0">
+        <v>58</v>
+      </c>
+      <c r="E104" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>1676592100927</v>
+      </c>
+      <c r="B105" s="0">
+        <v>119604557135265</v>
+      </c>
+      <c r="C105" s="0">
+        <v>84</v>
+      </c>
+      <c r="D105" s="0">
+        <v>59</v>
+      </c>
+      <c r="E105" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>1676592100936</v>
+      </c>
+      <c r="B106" s="0">
+        <v>119604566115245</v>
+      </c>
+      <c r="C106" s="0">
+        <v>83</v>
+      </c>
+      <c r="D106" s="0">
+        <v>59</v>
+      </c>
+      <c r="E106" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>1676592100945</v>
+      </c>
+      <c r="B107" s="0">
+        <v>119604575078441</v>
+      </c>
+      <c r="C107" s="0">
+        <v>83</v>
+      </c>
+      <c r="D107" s="0">
+        <v>59</v>
+      </c>
+      <c r="E107" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>1676592100954</v>
+      </c>
+      <c r="B108" s="0">
+        <v>119604584076183</v>
+      </c>
+      <c r="C108" s="0">
+        <v>82</v>
+      </c>
+      <c r="D108" s="0">
+        <v>58</v>
+      </c>
+      <c r="E108" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>1676592100963</v>
+      </c>
+      <c r="B109" s="0">
+        <v>119604593055919</v>
+      </c>
+      <c r="C109" s="0">
+        <v>82</v>
+      </c>
+      <c r="D109" s="0">
+        <v>57</v>
+      </c>
+      <c r="E109" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>1676592100971</v>
+      </c>
+      <c r="B110" s="0">
+        <v>119604602034923</v>
+      </c>
+      <c r="C110" s="0">
+        <v>81</v>
+      </c>
+      <c r="D110" s="0">
+        <v>56</v>
+      </c>
+      <c r="E110" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>1676592100981</v>
+      </c>
+      <c r="B111" s="0">
+        <v>119604611013805</v>
+      </c>
+      <c r="C111" s="0">
+        <v>80</v>
+      </c>
+      <c r="D111" s="0">
+        <v>55</v>
+      </c>
+      <c r="E111" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>1676592100989</v>
+      </c>
+      <c r="B112" s="0">
+        <v>119604619984264</v>
+      </c>
+      <c r="C112" s="0">
+        <v>79</v>
+      </c>
+      <c r="D112" s="0">
+        <v>54</v>
+      </c>
+      <c r="E112" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>1676592100998</v>
+      </c>
+      <c r="B113" s="0">
+        <v>119604628974620</v>
+      </c>
+      <c r="C113" s="0">
+        <v>78</v>
+      </c>
+      <c r="D113" s="0">
+        <v>53</v>
+      </c>
+      <c r="E113" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>1676592101007</v>
+      </c>
+      <c r="B114" s="0">
+        <v>119604637950633</v>
+      </c>
+      <c r="C114" s="0">
+        <v>77</v>
+      </c>
+      <c r="D114" s="0">
+        <v>53</v>
+      </c>
+      <c r="E114" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>1676592101016</v>
+      </c>
+      <c r="B115" s="0">
+        <v>119604646930126</v>
+      </c>
+      <c r="C115" s="0">
+        <v>77</v>
+      </c>
+      <c r="D115" s="0">
+        <v>52</v>
+      </c>
+      <c r="E115" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>1676592101025</v>
+      </c>
+      <c r="B116" s="0">
+        <v>119604655919749</v>
+      </c>
+      <c r="C116" s="0">
+        <v>76</v>
+      </c>
+      <c r="D116" s="0">
+        <v>52</v>
+      </c>
+      <c r="E116" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>1676592101034</v>
+      </c>
+      <c r="B117" s="0">
+        <v>119604664894542</v>
+      </c>
+      <c r="C117" s="0">
+        <v>76</v>
+      </c>
+      <c r="D117" s="0">
+        <v>52</v>
+      </c>
+      <c r="E117" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>1676592101042</v>
+      </c>
+      <c r="B118" s="0">
+        <v>119604673874035</v>
+      </c>
+      <c r="C118" s="0">
+        <v>75</v>
+      </c>
+      <c r="D118" s="0">
+        <v>52</v>
+      </c>
+      <c r="E118" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>1676592101051</v>
+      </c>
+      <c r="B119" s="0">
+        <v>119604682854259</v>
+      </c>
+      <c r="C119" s="0">
+        <v>75</v>
+      </c>
+      <c r="D119" s="0">
+        <v>52</v>
+      </c>
+      <c r="E119" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>1676592101060</v>
+      </c>
+      <c r="B120" s="0">
+        <v>119604691836498</v>
+      </c>
+      <c r="C120" s="0">
+        <v>74</v>
+      </c>
+      <c r="D120" s="0">
+        <v>52</v>
+      </c>
+      <c r="E120" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>1676592101070</v>
+      </c>
+      <c r="B121" s="0">
+        <v>119604700814098</v>
+      </c>
+      <c r="C121" s="0">
+        <v>73</v>
+      </c>
+      <c r="D121" s="0">
+        <v>53</v>
+      </c>
+      <c r="E121" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>1676592101078</v>
+      </c>
+      <c r="B122" s="0">
+        <v>119604709792857</v>
+      </c>
+      <c r="C122" s="0">
+        <v>73</v>
+      </c>
+      <c r="D122" s="0">
+        <v>53</v>
+      </c>
+      <c r="E122" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>1676592101087</v>
+      </c>
+      <c r="B123" s="0">
+        <v>119604718774242</v>
+      </c>
+      <c r="C123" s="0">
+        <v>72</v>
+      </c>
+      <c r="D123" s="0">
+        <v>54</v>
+      </c>
+      <c r="E123" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>1676592101097</v>
+      </c>
+      <c r="B124" s="0">
+        <v>119604727755199</v>
+      </c>
+      <c r="C124" s="0">
+        <v>71</v>
+      </c>
+      <c r="D124" s="0">
+        <v>55</v>
+      </c>
+      <c r="E124" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>1676592101105</v>
+      </c>
+      <c r="B125" s="0">
+        <v>119604736730846</v>
+      </c>
+      <c r="C125" s="0">
+        <v>70</v>
+      </c>
+      <c r="D125" s="0">
+        <v>55</v>
+      </c>
+      <c r="E125" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>1676592101115</v>
+      </c>
+      <c r="B126" s="0">
+        <v>119604745713756</v>
+      </c>
+      <c r="C126" s="0">
+        <v>69</v>
+      </c>
+      <c r="D126" s="0">
+        <v>55</v>
+      </c>
+      <c r="E126" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>1676592101124</v>
+      </c>
+      <c r="B127" s="0">
+        <v>119604754696849</v>
+      </c>
+      <c r="C127" s="0">
+        <v>68</v>
+      </c>
+      <c r="D127" s="0">
+        <v>55</v>
+      </c>
+      <c r="E127" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>1676592101133</v>
+      </c>
+      <c r="B128" s="0">
+        <v>119604763674571</v>
+      </c>
+      <c r="C128" s="0">
+        <v>67</v>
+      </c>
+      <c r="D128" s="0">
+        <v>54</v>
+      </c>
+      <c r="E128" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>1676592101141</v>
+      </c>
+      <c r="B129" s="0">
+        <v>119604772653514</v>
+      </c>
+      <c r="C129" s="0">
+        <v>66</v>
+      </c>
+      <c r="D129" s="0">
+        <v>53</v>
+      </c>
+      <c r="E129" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>1676592101150</v>
+      </c>
+      <c r="B130" s="0">
+        <v>119604781628917</v>
+      </c>
+      <c r="C130" s="0">
+        <v>65</v>
+      </c>
+      <c r="D130" s="0">
+        <v>53</v>
+      </c>
+      <c r="E130" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>1676592101159</v>
+      </c>
+      <c r="B131" s="0">
+        <v>119604790613780</v>
+      </c>
+      <c r="C131" s="0">
+        <v>64</v>
+      </c>
+      <c r="D131" s="0">
+        <v>53</v>
+      </c>
+      <c r="E131" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>1676592101169</v>
+      </c>
+      <c r="B132" s="0">
+        <v>119604799599376</v>
+      </c>
+      <c r="C132" s="0">
+        <v>63</v>
+      </c>
+      <c r="D132" s="0">
+        <v>53</v>
+      </c>
+      <c r="E132" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>1676592101177</v>
+      </c>
+      <c r="B133" s="0">
+        <v>119604808555187</v>
+      </c>
+      <c r="C133" s="0">
+        <v>63</v>
+      </c>
+      <c r="D133" s="0">
+        <v>53</v>
+      </c>
+      <c r="E133" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>1676592101186</v>
+      </c>
+      <c r="B134" s="0">
+        <v>119604817552929</v>
+      </c>
+      <c r="C134" s="0">
+        <v>62</v>
+      </c>
+      <c r="D134" s="0">
+        <v>54</v>
+      </c>
+      <c r="E134" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>1676592101196</v>
+      </c>
+      <c r="B135" s="0">
+        <v>119604826532909</v>
+      </c>
+      <c r="C135" s="0">
+        <v>62</v>
+      </c>
+      <c r="D135" s="0">
+        <v>54</v>
+      </c>
+      <c r="E135" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>1676592101205</v>
+      </c>
+      <c r="B136" s="0">
+        <v>119604835514049</v>
+      </c>
+      <c r="C136" s="0">
+        <v>62</v>
+      </c>
+      <c r="D136" s="0">
+        <v>54</v>
+      </c>
+      <c r="E136" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>1676592101213</v>
+      </c>
+      <c r="B137" s="0">
+        <v>119604844493114</v>
+      </c>
+      <c r="C137" s="0">
+        <v>63</v>
+      </c>
+      <c r="D137" s="0">
+        <v>54</v>
+      </c>
+      <c r="E137" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>1676592101222</v>
+      </c>
+      <c r="B138" s="0">
+        <v>119604853461498</v>
+      </c>
+      <c r="C138" s="0">
+        <v>64</v>
+      </c>
+      <c r="D138" s="0">
+        <v>53</v>
+      </c>
+      <c r="E138" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>1676592101231</v>
+      </c>
+      <c r="B139" s="0">
+        <v>119604862450511</v>
+      </c>
+      <c r="C139" s="0">
+        <v>66</v>
+      </c>
+      <c r="D139" s="0">
+        <v>53</v>
+      </c>
+      <c r="E139" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>1676592101240</v>
+      </c>
+      <c r="B140" s="0">
+        <v>119604871434032</v>
+      </c>
+      <c r="C140" s="0">
+        <v>67</v>
+      </c>
+      <c r="D140" s="0">
+        <v>53</v>
+      </c>
+      <c r="E140" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>1676592101249</v>
+      </c>
+      <c r="B141" s="0">
+        <v>119604880412792</v>
+      </c>
+      <c r="C141" s="0">
+        <v>69</v>
+      </c>
+      <c r="D141" s="0">
+        <v>53</v>
+      </c>
+      <c r="E141" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>1676592101259</v>
+      </c>
+      <c r="B142" s="0">
+        <v>119604889392589</v>
+      </c>
+      <c r="C142" s="0">
+        <v>71</v>
+      </c>
+      <c r="D142" s="0">
+        <v>53</v>
+      </c>
+      <c r="E142" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>1676592101268</v>
+      </c>
+      <c r="B143" s="0">
+        <v>119604898369640</v>
+      </c>
+      <c r="C143" s="0">
+        <v>73</v>
+      </c>
+      <c r="D143" s="0">
+        <v>54</v>
+      </c>
+      <c r="E143" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>1676592101276</v>
+      </c>
+      <c r="B144" s="0">
+        <v>119604907353466</v>
+      </c>
+      <c r="C144" s="0">
+        <v>75</v>
+      </c>
+      <c r="D144" s="0">
+        <v>54</v>
+      </c>
+      <c r="E144" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>1676592101286</v>
+      </c>
+      <c r="B145" s="0">
+        <v>119604916335154</v>
+      </c>
+      <c r="C145" s="0">
+        <v>76</v>
+      </c>
+      <c r="D145" s="0">
+        <v>55</v>
+      </c>
+      <c r="E145" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>1676592101295</v>
+      </c>
+      <c r="B146" s="0">
+        <v>119604925312450</v>
+      </c>
+      <c r="C146" s="0">
+        <v>78</v>
+      </c>
+      <c r="D146" s="0">
+        <v>56</v>
+      </c>
+      <c r="E146" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>1676592101304</v>
+      </c>
+      <c r="B147" s="0">
+        <v>119604934292247</v>
+      </c>
+      <c r="C147" s="0">
+        <v>79</v>
+      </c>
+      <c r="D147" s="0">
+        <v>57</v>
+      </c>
+      <c r="E147" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>1676592101313</v>
+      </c>
+      <c r="B148" s="0">
+        <v>119604943273509</v>
+      </c>
+      <c r="C148" s="0">
+        <v>80</v>
+      </c>
+      <c r="D148" s="0">
+        <v>57</v>
+      </c>
+      <c r="E148" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>1676592101321</v>
+      </c>
+      <c r="B149" s="0">
+        <v>119604952246044</v>
+      </c>
+      <c r="C149" s="0">
+        <v>81</v>
+      </c>
+      <c r="D149" s="0">
+        <v>58</v>
+      </c>
+      <c r="E149" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>1676592101331</v>
+      </c>
+      <c r="B150" s="0">
+        <v>119604961231640</v>
+      </c>
+      <c r="C150" s="0">
+        <v>82</v>
+      </c>
+      <c r="D150" s="0">
+        <v>58</v>
+      </c>
+      <c r="E150" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>1676592101340</v>
+      </c>
+      <c r="B151" s="0">
+        <v>119604970213451</v>
+      </c>
+      <c r="C151" s="0">
+        <v>83</v>
+      </c>
+      <c r="D151" s="0">
+        <v>58</v>
+      </c>
+      <c r="E151" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>1676592101348</v>
+      </c>
+      <c r="B152" s="0">
+        <v>119604979193065</v>
+      </c>
+      <c r="C152" s="0">
+        <v>83</v>
+      </c>
+      <c r="D152" s="0">
+        <v>57</v>
+      </c>
+      <c r="E152" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>1676592101357</v>
+      </c>
+      <c r="B153" s="0">
+        <v>119604988170299</v>
+      </c>
+      <c r="C153" s="0">
+        <v>83</v>
+      </c>
+      <c r="D153" s="0">
+        <v>57</v>
+      </c>
+      <c r="E153" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>1676592101367</v>
+      </c>
+      <c r="B154" s="0">
+        <v>119604997141918</v>
+      </c>
+      <c r="C154" s="0">
+        <v>83</v>
+      </c>
+      <c r="D154" s="0">
+        <v>57</v>
+      </c>
+      <c r="E154" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>1676592101376</v>
+      </c>
+      <c r="B155" s="0">
+        <v>119605006131908</v>
+      </c>
+      <c r="C155" s="0">
+        <v>82</v>
+      </c>
+      <c r="D155" s="0">
+        <v>58</v>
+      </c>
+      <c r="E155" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>1676592101384</v>
+      </c>
+      <c r="B156" s="0">
+        <v>119605015110057</v>
+      </c>
+      <c r="C156" s="0">
+        <v>81</v>
+      </c>
+      <c r="D156" s="0">
+        <v>60</v>
+      </c>
+      <c r="E156" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>1676592101394</v>
+      </c>
+      <c r="B157" s="0">
+        <v>119605024091198</v>
+      </c>
+      <c r="C157" s="0">
+        <v>81</v>
+      </c>
+      <c r="D157" s="0">
+        <v>62</v>
+      </c>
+      <c r="E157" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>1676592101403</v>
+      </c>
+      <c r="B158" s="0">
+        <v>119605033074168</v>
+      </c>
+      <c r="C158" s="0">
+        <v>81</v>
+      </c>
+      <c r="D158" s="0">
+        <v>64</v>
+      </c>
+      <c r="E158" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>1676592101412</v>
+      </c>
+      <c r="B159" s="0">
+        <v>119605042051280</v>
+      </c>
+      <c r="C159" s="0">
+        <v>82</v>
+      </c>
+      <c r="D159" s="0">
+        <v>65</v>
+      </c>
+      <c r="E159" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>1676592101420</v>
+      </c>
+      <c r="B160" s="0">
+        <v>119605051032482</v>
+      </c>
+      <c r="C160" s="0">
+        <v>81</v>
+      </c>
+      <c r="D160" s="0">
+        <v>66</v>
+      </c>
+      <c r="E160" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>1676592101429</v>
+      </c>
+      <c r="B161" s="0">
+        <v>119605060011241</v>
+      </c>
+      <c r="C161" s="0">
+        <v>81</v>
+      </c>
+      <c r="D161" s="0">
+        <v>66</v>
+      </c>
+      <c r="E161" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>1676592101437</v>
+      </c>
+      <c r="B162" s="0">
+        <v>119605068991161</v>
+      </c>
+      <c r="C162" s="0">
+        <v>79</v>
+      </c>
+      <c r="D162" s="0">
+        <v>66</v>
+      </c>
+      <c r="E162" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>1676592101446</v>
+      </c>
+      <c r="B163" s="0">
+        <v>119605077968150</v>
+      </c>
+      <c r="C163" s="0">
+        <v>78</v>
+      </c>
+      <c r="D163" s="0">
+        <v>65</v>
+      </c>
+      <c r="E163" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>1676592101455</v>
+      </c>
+      <c r="B164" s="0">
+        <v>119605086948497</v>
+      </c>
+      <c r="C164" s="0">
+        <v>76</v>
+      </c>
+      <c r="D164" s="0">
+        <v>65</v>
+      </c>
+      <c r="E164" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>1676592101464</v>
+      </c>
+      <c r="B165" s="0">
+        <v>119605095930004</v>
+      </c>
+      <c r="C165" s="0">
+        <v>74</v>
+      </c>
+      <c r="D165" s="0">
+        <v>65</v>
+      </c>
+      <c r="E165" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>1676592101473</v>
+      </c>
+      <c r="B166" s="0">
+        <v>119605104910411</v>
+      </c>
+      <c r="C166" s="0">
+        <v>73</v>
+      </c>
+      <c r="D166" s="0">
+        <v>65</v>
+      </c>
+      <c r="E166" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>1676592101483</v>
+      </c>
+      <c r="B167" s="0">
+        <v>119605113890758</v>
+      </c>
+      <c r="C167" s="0">
+        <v>72</v>
+      </c>
+      <c r="D167" s="0">
+        <v>65</v>
+      </c>
+      <c r="E167" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>1676592101492</v>
+      </c>
+      <c r="B168" s="0">
+        <v>119605122872020</v>
+      </c>
+      <c r="C168" s="0">
+        <v>71</v>
+      </c>
+      <c r="D168" s="0">
+        <v>65</v>
+      </c>
+      <c r="E168" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>1676592101501</v>
+      </c>
+      <c r="B169" s="0">
+        <v>119605131850902</v>
+      </c>
+      <c r="C169" s="0">
+        <v>70</v>
+      </c>
+      <c r="D169" s="0">
+        <v>65</v>
+      </c>
+      <c r="E169" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>1676592101510</v>
+      </c>
+      <c r="B170" s="0">
+        <v>119605140830272</v>
+      </c>
+      <c r="C170" s="0">
+        <v>69</v>
+      </c>
+      <c r="D170" s="0">
+        <v>65</v>
+      </c>
+      <c r="E170" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>1676592101518</v>
+      </c>
+      <c r="B171" s="0">
+        <v>119605149810558</v>
+      </c>
+      <c r="C171" s="0">
+        <v>68</v>
+      </c>
+      <c r="D171" s="0">
+        <v>66</v>
+      </c>
+      <c r="E171" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>1676592101528</v>
+      </c>
+      <c r="B172" s="0">
+        <v>119605158791759</v>
+      </c>
+      <c r="C172" s="0">
+        <v>67</v>
+      </c>
+      <c r="D172" s="0">
+        <v>66</v>
+      </c>
+      <c r="E172" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>1676592101536</v>
+      </c>
+      <c r="B173" s="0">
+        <v>119605167770458</v>
+      </c>
+      <c r="C173" s="0">
+        <v>66</v>
+      </c>
+      <c r="D173" s="0">
+        <v>66</v>
+      </c>
+      <c r="E173" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>1676592101545</v>
+      </c>
+      <c r="B174" s="0">
+        <v>119605176750255</v>
+      </c>
+      <c r="C174" s="0">
+        <v>66</v>
+      </c>
+      <c r="D174" s="0">
+        <v>66</v>
+      </c>
+      <c r="E174" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>1676592101554</v>
+      </c>
+      <c r="B175" s="0">
+        <v>119605185729747</v>
+      </c>
+      <c r="C175" s="0">
+        <v>65</v>
+      </c>
+      <c r="D175" s="0">
+        <v>66</v>
+      </c>
+      <c r="E175" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>1676592101563</v>
+      </c>
+      <c r="B176" s="0">
+        <v>119605194711437</v>
+      </c>
+      <c r="C176" s="0">
+        <v>65</v>
+      </c>
+      <c r="D176" s="0">
+        <v>67</v>
+      </c>
+      <c r="E176" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>1676592101573</v>
+      </c>
+      <c r="B177" s="0">
+        <v>119605203687877</v>
+      </c>
+      <c r="C177" s="0">
+        <v>64</v>
+      </c>
+      <c r="D177" s="0">
+        <v>67</v>
+      </c>
+      <c r="E177" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>1676592101581</v>
+      </c>
+      <c r="B178" s="0">
+        <v>119605212658458</v>
+      </c>
+      <c r="C178" s="0">
+        <v>65</v>
+      </c>
+      <c r="D178" s="0">
+        <v>66</v>
+      </c>
+      <c r="E178" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>1676592101590</v>
+      </c>
+      <c r="B179" s="0">
+        <v>119605221652110</v>
+      </c>
+      <c r="C179" s="0">
+        <v>65</v>
+      </c>
+      <c r="D179" s="0">
+        <v>67</v>
+      </c>
+      <c r="E179" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>1676592101599</v>
+      </c>
+      <c r="B180" s="0">
+        <v>119605230631297</v>
+      </c>
+      <c r="C180" s="0">
+        <v>65</v>
+      </c>
+      <c r="D180" s="0">
+        <v>67</v>
+      </c>
+      <c r="E180" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>1676592101608</v>
+      </c>
+      <c r="B181" s="0">
+        <v>119605239609691</v>
+      </c>
+      <c r="C181" s="0">
+        <v>66</v>
+      </c>
+      <c r="D181" s="0">
+        <v>68</v>
+      </c>
+      <c r="E181" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>1676592101618</v>
+      </c>
+      <c r="B182" s="0">
+        <v>119605248589611</v>
+      </c>
+      <c r="C182" s="0">
+        <v>66</v>
+      </c>
+      <c r="D182" s="0">
+        <v>68</v>
+      </c>
+      <c r="E182" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>1676592101627</v>
+      </c>
+      <c r="B183" s="0">
+        <v>119605257569774</v>
+      </c>
+      <c r="C183" s="0">
+        <v>67</v>
+      </c>
+      <c r="D183" s="0">
+        <v>68</v>
+      </c>
+      <c r="E183" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>1676592101636</v>
+      </c>
+      <c r="B184" s="0">
+        <v>119605266550731</v>
+      </c>
+      <c r="C184" s="0">
+        <v>67</v>
+      </c>
+      <c r="D184" s="0">
+        <v>67</v>
+      </c>
+      <c r="E184" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>1676592101645</v>
+      </c>
+      <c r="B185" s="0">
+        <v>119605275529552</v>
+      </c>
+      <c r="C185" s="0">
+        <v>68</v>
+      </c>
+      <c r="D185" s="0">
+        <v>67</v>
+      </c>
+      <c r="E185" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>1676592101653</v>
+      </c>
+      <c r="B186" s="0">
+        <v>119605284509471</v>
+      </c>
+      <c r="C186" s="0">
+        <v>68</v>
+      </c>
+      <c r="D186" s="0">
+        <v>67</v>
+      </c>
+      <c r="E186" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>1676592101662</v>
+      </c>
+      <c r="B187" s="0">
+        <v>119605293489513</v>
+      </c>
+      <c r="C187" s="0">
+        <v>69</v>
+      </c>
+      <c r="D187" s="0">
+        <v>67</v>
+      </c>
+      <c r="E187" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>1676592101671</v>
+      </c>
+      <c r="B188" s="0">
+        <v>119605302454662</v>
+      </c>
+      <c r="C188" s="0">
+        <v>69</v>
+      </c>
+      <c r="D188" s="0">
+        <v>67</v>
+      </c>
+      <c r="E188" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>1676592101680</v>
+      </c>
+      <c r="B189" s="0">
+        <v>119605311449169</v>
+      </c>
+      <c r="C189" s="0">
+        <v>69</v>
+      </c>
+      <c r="D189" s="0">
+        <v>68</v>
+      </c>
+      <c r="E189" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>1676592101689</v>
+      </c>
+      <c r="B190" s="0">
+        <v>119605320433055</v>
+      </c>
+      <c r="C190" s="0">
+        <v>69</v>
+      </c>
+      <c r="D190" s="0">
+        <v>68</v>
+      </c>
+      <c r="E190" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>1676592101698</v>
+      </c>
+      <c r="B191" s="0">
+        <v>119605329408885</v>
+      </c>
+      <c r="C191" s="0">
+        <v>69</v>
+      </c>
+      <c r="D191" s="0">
+        <v>69</v>
+      </c>
+      <c r="E191" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>1676592101707</v>
+      </c>
+      <c r="B192" s="0">
+        <v>119605338390331</v>
+      </c>
+      <c r="C192" s="0">
+        <v>69</v>
+      </c>
+      <c r="D192" s="0">
+        <v>70</v>
+      </c>
+      <c r="E192" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>1676592101716</v>
+      </c>
+      <c r="B193" s="0">
+        <v>119605347366222</v>
+      </c>
+      <c r="C193" s="0">
+        <v>69</v>
+      </c>
+      <c r="D193" s="0">
+        <v>70</v>
+      </c>
+      <c r="E193" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>1676592101725</v>
+      </c>
+      <c r="B194" s="0">
+        <v>119605356349071</v>
+      </c>
+      <c r="C194" s="0">
+        <v>69</v>
+      </c>
+      <c r="D194" s="0">
+        <v>70</v>
+      </c>
+      <c r="E194" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>1676592101735</v>
+      </c>
+      <c r="B195" s="0">
+        <v>119605365331981</v>
+      </c>
+      <c r="C195" s="0">
+        <v>69</v>
+      </c>
+      <c r="D195" s="0">
+        <v>71</v>
+      </c>
+      <c r="E195" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>1676592101744</v>
+      </c>
+      <c r="B196" s="0">
+        <v>119605374301158</v>
+      </c>
+      <c r="C196" s="0">
+        <v>68</v>
+      </c>
+      <c r="D196" s="0">
+        <v>71</v>
+      </c>
+      <c r="E196" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>1676592101753</v>
+      </c>
+      <c r="B197" s="0">
+        <v>119605383288646</v>
+      </c>
+      <c r="C197" s="0">
+        <v>67</v>
+      </c>
+      <c r="D197" s="0">
+        <v>71</v>
+      </c>
+      <c r="E197" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>1676592101762</v>
+      </c>
+      <c r="B198" s="0">
+        <v>119605392265575</v>
+      </c>
+      <c r="C198" s="0">
+        <v>66</v>
+      </c>
+      <c r="D198" s="0">
+        <v>71</v>
+      </c>
+      <c r="E198" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>1676592101770</v>
+      </c>
+      <c r="B199" s="0">
+        <v>119605401248729</v>
+      </c>
+      <c r="C199" s="0">
+        <v>65</v>
+      </c>
+      <c r="D199" s="0">
+        <v>71</v>
+      </c>
+      <c r="E199" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>1676592101779</v>
+      </c>
+      <c r="B200" s="0">
+        <v>119605410232371</v>
+      </c>
+      <c r="C200" s="0">
+        <v>64</v>
+      </c>
+      <c r="D200" s="0">
+        <v>72</v>
+      </c>
+      <c r="E200" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>1676592101789</v>
+      </c>
+      <c r="B201" s="0">
+        <v>119605419196971</v>
+      </c>
+      <c r="C201" s="0">
+        <v>63</v>
+      </c>
+      <c r="D201" s="0">
+        <v>73</v>
+      </c>
+      <c r="E201" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>1676592101797</v>
+      </c>
+      <c r="B202" s="0">
+        <v>119605428188427</v>
+      </c>
+      <c r="C202" s="0">
+        <v>62</v>
+      </c>
+      <c r="D202" s="0">
+        <v>76</v>
+      </c>
+      <c r="E202" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>1676592101806</v>
+      </c>
+      <c r="B203" s="0">
+        <v>119605437168468</v>
+      </c>
+      <c r="C203" s="0">
+        <v>61</v>
+      </c>
+      <c r="D203" s="0">
+        <v>78</v>
+      </c>
+      <c r="E203" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>1676592101816</v>
+      </c>
+      <c r="B204" s="0">
+        <v>119605446149730</v>
+      </c>
+      <c r="C204" s="0">
+        <v>60</v>
+      </c>
+      <c r="D204" s="0">
+        <v>80</v>
+      </c>
+      <c r="E204" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>1676592101825</v>
+      </c>
+      <c r="B205" s="0">
+        <v>119605455128185</v>
+      </c>
+      <c r="C205" s="0">
+        <v>59</v>
+      </c>
+      <c r="D205" s="0">
+        <v>81</v>
+      </c>
+      <c r="E205" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>1676592101833</v>
+      </c>
+      <c r="B206" s="0">
+        <v>119605464107799</v>
+      </c>
+      <c r="C206" s="0">
+        <v>59</v>
+      </c>
+      <c r="D206" s="0">
+        <v>80</v>
+      </c>
+      <c r="E206" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>1676592101843</v>
+      </c>
+      <c r="B207" s="0">
+        <v>119605473088146</v>
+      </c>
+      <c r="C207" s="0">
+        <v>59</v>
+      </c>
+      <c r="D207" s="0">
+        <v>79</v>
+      </c>
+      <c r="E207" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>1676592101851</v>
+      </c>
+      <c r="B208" s="0">
+        <v>119605482069164</v>
+      </c>
+      <c r="C208" s="0">
+        <v>60</v>
+      </c>
+      <c r="D208" s="0">
+        <v>78</v>
+      </c>
+      <c r="E208" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>1676592101861</v>
+      </c>
+      <c r="B209" s="0">
+        <v>119605491047802</v>
+      </c>
+      <c r="C209" s="0">
+        <v>60</v>
+      </c>
+      <c r="D209" s="0">
+        <v>77</v>
+      </c>
+      <c r="E209" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>1676592101870</v>
+      </c>
+      <c r="B210" s="0">
+        <v>119605500027721</v>
+      </c>
+      <c r="C210" s="0">
+        <v>61</v>
+      </c>
+      <c r="D210" s="0">
+        <v>76</v>
+      </c>
+      <c r="E210" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>1676592101878</v>
+      </c>
+      <c r="B211" s="0">
+        <v>119605509007762</v>
+      </c>
+      <c r="C211" s="0">
+        <v>61</v>
+      </c>
+      <c r="D211" s="0">
+        <v>76</v>
+      </c>
+      <c r="E211" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>1676592101886</v>
+      </c>
+      <c r="B212" s="0">
+        <v>119605517974193</v>
+      </c>
+      <c r="C212" s="0">
+        <v>61</v>
+      </c>
+      <c r="D212" s="0">
+        <v>76</v>
+      </c>
+      <c r="E212" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>1676592101896</v>
+      </c>
+      <c r="B213" s="0">
+        <v>119605526959239</v>
+      </c>
+      <c r="C213" s="0">
+        <v>61</v>
+      </c>
+      <c r="D213" s="0">
+        <v>75</v>
+      </c>
+      <c r="E213" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>1676592101905</v>
+      </c>
+      <c r="B214" s="0">
+        <v>119605535950328</v>
+      </c>
+      <c r="C214" s="0">
+        <v>61</v>
+      </c>
+      <c r="D214" s="0">
+        <v>75</v>
+      </c>
+      <c r="E214" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>1676592101913</v>
+      </c>
+      <c r="B215" s="0">
+        <v>119605544927440</v>
+      </c>
+      <c r="C215" s="0">
+        <v>61</v>
+      </c>
+      <c r="D215" s="0">
+        <v>75</v>
+      </c>
+      <c r="E215" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>1676592101922</v>
+      </c>
+      <c r="B216" s="0">
+        <v>119605553908763</v>
+      </c>
+      <c r="C216" s="0">
+        <v>61</v>
+      </c>
+      <c r="D216" s="0">
+        <v>74</v>
+      </c>
+      <c r="E216" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>1676592101932</v>
+      </c>
+      <c r="B217" s="0">
+        <v>119605562886241</v>
+      </c>
+      <c r="C217" s="0">
+        <v>61</v>
+      </c>
+      <c r="D217" s="0">
+        <v>73</v>
+      </c>
+      <c r="E217" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>1676592101941</v>
+      </c>
+      <c r="B218" s="0">
+        <v>119605571867443</v>
+      </c>
+      <c r="C218" s="0">
+        <v>60</v>
+      </c>
+      <c r="D218" s="0">
+        <v>73</v>
+      </c>
+      <c r="E218" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>1676592101949</v>
+      </c>
+      <c r="B219" s="0">
+        <v>119605580845775</v>
+      </c>
+      <c r="C219" s="0">
+        <v>59</v>
+      </c>
+      <c r="D219" s="0">
+        <v>74</v>
+      </c>
+      <c r="E219" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>1676592101959</v>
+      </c>
+      <c r="B220" s="0">
+        <v>119605589828868</v>
+      </c>
+      <c r="C220" s="0">
+        <v>57</v>
+      </c>
+      <c r="D220" s="0">
+        <v>76</v>
+      </c>
+      <c r="E220" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>1676592101967</v>
+      </c>
+      <c r="B221" s="0">
+        <v>119605598808544</v>
+      </c>
+      <c r="C221" s="0">
+        <v>55</v>
+      </c>
+      <c r="D221" s="0">
+        <v>80</v>
+      </c>
+      <c r="E221" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>1676592101977</v>
+      </c>
+      <c r="B222" s="0">
+        <v>119605607773143</v>
+      </c>
+      <c r="C222" s="0">
+        <v>53</v>
+      </c>
+      <c r="D222" s="0">
+        <v>82</v>
+      </c>
+      <c r="E222" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>1676592101986</v>
+      </c>
+      <c r="B223" s="0">
+        <v>119605616767101</v>
+      </c>
+      <c r="C223" s="0">
+        <v>52</v>
+      </c>
+      <c r="D223" s="0">
+        <v>82</v>
+      </c>
+      <c r="E223" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>1676592101995</v>
+      </c>
+      <c r="B224" s="0">
+        <v>119605625747753</v>
+      </c>
+      <c r="C224" s="0">
+        <v>51</v>
+      </c>
+      <c r="D224" s="0">
+        <v>82</v>
+      </c>
+      <c r="E224" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>1676592102004</v>
+      </c>
+      <c r="B225" s="0">
+        <v>119605634726757</v>
+      </c>
+      <c r="C225" s="0">
+        <v>52</v>
+      </c>
+      <c r="D225" s="0">
+        <v>81</v>
+      </c>
+      <c r="E225" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>1676592102012</v>
+      </c>
+      <c r="B226" s="0">
+        <v>119605643707042</v>
+      </c>
+      <c r="C226" s="0">
+        <v>53</v>
+      </c>
+      <c r="D226" s="0">
+        <v>79</v>
+      </c>
+      <c r="E226" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>1676592102022</v>
+      </c>
+      <c r="B227" s="0">
+        <v>119605652675060</v>
+      </c>
+      <c r="C227" s="0">
+        <v>54</v>
+      </c>
+      <c r="D227" s="0">
+        <v>77</v>
+      </c>
+      <c r="E227" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>1676592102031</v>
+      </c>
+      <c r="B228" s="0">
+        <v>119605661655651</v>
+      </c>
+      <c r="C228" s="0">
+        <v>55</v>
+      </c>
+      <c r="D228" s="0">
+        <v>76</v>
+      </c>
+      <c r="E228" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>1676592102039</v>
+      </c>
+      <c r="B229" s="0">
+        <v>119605670635692</v>
+      </c>
+      <c r="C229" s="0">
+        <v>57</v>
+      </c>
+      <c r="D229" s="0">
+        <v>74</v>
+      </c>
+      <c r="E229" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>1676592102048</v>
+      </c>
+      <c r="B230" s="0">
+        <v>119605679629283</v>
+      </c>
+      <c r="C230" s="0">
+        <v>59</v>
+      </c>
+      <c r="D230" s="0">
+        <v>73</v>
+      </c>
+      <c r="E230" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>1676592102058</v>
+      </c>
+      <c r="B231" s="0">
+        <v>119605688606456</v>
+      </c>
+      <c r="C231" s="0">
+        <v>61</v>
+      </c>
+      <c r="D231" s="0">
+        <v>72</v>
+      </c>
+      <c r="E231" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>1676592102066</v>
+      </c>
+      <c r="B232" s="0">
+        <v>119605697587352</v>
+      </c>
+      <c r="C232" s="0">
+        <v>64</v>
+      </c>
+      <c r="D232" s="0">
+        <v>71</v>
+      </c>
+      <c r="E232" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>1676592102076</v>
+      </c>
+      <c r="B233" s="0">
+        <v>119605706566173</v>
+      </c>
+      <c r="C233" s="0">
+        <v>67</v>
+      </c>
+      <c r="D233" s="0">
+        <v>71</v>
+      </c>
+      <c r="E233" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>1676592102084</v>
+      </c>
+      <c r="B234" s="0">
+        <v>119605715546398</v>
+      </c>
+      <c r="C234" s="0">
+        <v>69</v>
+      </c>
+      <c r="D234" s="0">
+        <v>73</v>
+      </c>
+      <c r="E234" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>1676592102093</v>
+      </c>
+      <c r="B235" s="0">
+        <v>119605724525707</v>
+      </c>
+      <c r="C235" s="0">
+        <v>70</v>
+      </c>
+      <c r="D235" s="0">
+        <v>74</v>
+      </c>
+      <c r="E235" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>1676592102103</v>
+      </c>
+      <c r="B236" s="0">
+        <v>119605733507518</v>
+      </c>
+      <c r="C236" s="0">
+        <v>72</v>
+      </c>
+      <c r="D236" s="0">
+        <v>75</v>
+      </c>
+      <c r="E236" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>1676592102111</v>
+      </c>
+      <c r="B237" s="0">
+        <v>119605742475230</v>
+      </c>
+      <c r="C237" s="0">
+        <v>75</v>
+      </c>
+      <c r="D237" s="0">
+        <v>75</v>
+      </c>
+      <c r="E237" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>1676592102121</v>
+      </c>
+      <c r="B238" s="0">
+        <v>119605751465587</v>
+      </c>
+      <c r="C238" s="0">
+        <v>78</v>
+      </c>
+      <c r="D238" s="0">
+        <v>74</v>
+      </c>
+      <c r="E238" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>1676592102129</v>
+      </c>
+      <c r="B239" s="0">
+        <v>119605760446056</v>
+      </c>
+      <c r="C239" s="0">
+        <v>82</v>
+      </c>
+      <c r="D239" s="0">
+        <v>72</v>
+      </c>
+      <c r="E239" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>1676592102138</v>
+      </c>
+      <c r="B240" s="0">
+        <v>119605769427928</v>
+      </c>
+      <c r="C240" s="0">
+        <v>85</v>
+      </c>
+      <c r="D240" s="0">
+        <v>70</v>
+      </c>
+      <c r="E240" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>1676592102147</v>
+      </c>
+      <c r="B241" s="0">
+        <v>119605778404491</v>
+      </c>
+      <c r="C241" s="0">
+        <v>88</v>
+      </c>
+      <c r="D241" s="0">
+        <v>68</v>
+      </c>
+      <c r="E241" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>1676592102157</v>
+      </c>
+      <c r="B242" s="0">
+        <v>119605787385020</v>
+      </c>
+      <c r="C242" s="0">
+        <v>91</v>
+      </c>
+      <c r="D242" s="0">
+        <v>66</v>
+      </c>
+      <c r="E242" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>1676592102165</v>
+      </c>
+      <c r="B243" s="0">
+        <v>119605796355480</v>
+      </c>
+      <c r="C243" s="0">
+        <v>94</v>
+      </c>
+      <c r="D243" s="0">
+        <v>65</v>
+      </c>
+      <c r="E243" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>1676592102174</v>
+      </c>
+      <c r="B244" s="0">
+        <v>119605805347240</v>
+      </c>
+      <c r="C244" s="0">
+        <v>97</v>
+      </c>
+      <c r="D244" s="0">
+        <v>65</v>
+      </c>
+      <c r="E244" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>1676592102184</v>
+      </c>
+      <c r="B245" s="0">
+        <v>119605814325695</v>
+      </c>
+      <c r="C245" s="0">
+        <v>98</v>
+      </c>
+      <c r="D245" s="0">
+        <v>65</v>
+      </c>
+      <c r="E245" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>1676592102192</v>
+      </c>
+      <c r="B246" s="0">
+        <v>119605823305248</v>
+      </c>
+      <c r="C246" s="0">
+        <v>100</v>
+      </c>
+      <c r="D246" s="0">
+        <v>66</v>
+      </c>
+      <c r="E246" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>1676592102201</v>
+      </c>
+      <c r="B247" s="0">
+        <v>119605832285655</v>
+      </c>
+      <c r="C247" s="0">
+        <v>100</v>
+      </c>
+      <c r="D247" s="0">
+        <v>66</v>
+      </c>
+      <c r="E247" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>1676592102210</v>
+      </c>
+      <c r="B248" s="0">
+        <v>119605841254711</v>
+      </c>
+      <c r="C248" s="0">
+        <v>101</v>
+      </c>
+      <c r="D248" s="0">
+        <v>66</v>
+      </c>
+      <c r="E248" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>1676592102220</v>
+      </c>
+      <c r="B249" s="0">
+        <v>119605850245311</v>
+      </c>
+      <c r="C249" s="0">
+        <v>101</v>
+      </c>
+      <c r="D249" s="0">
+        <v>66</v>
+      </c>
+      <c r="E249" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>1676592102229</v>
+      </c>
+      <c r="B250" s="0">
+        <v>119605859222423</v>
+      </c>
+      <c r="C250" s="0">
+        <v>102</v>
+      </c>
+      <c r="D250" s="0">
+        <v>65</v>
+      </c>
+      <c r="E250" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>1676592102238</v>
+      </c>
+      <c r="B251" s="0">
+        <v>119605868205516</v>
+      </c>
+      <c r="C251" s="0">
+        <v>102</v>
+      </c>
+      <c r="D251" s="0">
+        <v>64</v>
+      </c>
+      <c r="E251" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>1676592102246</v>
+      </c>
+      <c r="B252" s="0">
+        <v>119605877189464</v>
+      </c>
+      <c r="C252" s="0">
+        <v>103</v>
+      </c>
+      <c r="D252" s="0">
+        <v>64</v>
+      </c>
+      <c r="E252" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>1676592102255</v>
+      </c>
+      <c r="B253" s="0">
+        <v>119605886165294</v>
+      </c>
+      <c r="C253" s="0">
+        <v>103</v>
+      </c>
+      <c r="D253" s="0">
+        <v>63</v>
+      </c>
+      <c r="E253" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>1676592102264</v>
+      </c>
+      <c r="B254" s="0">
+        <v>119605895145031</v>
+      </c>
+      <c r="C254" s="0">
+        <v>103</v>
+      </c>
+      <c r="D254" s="0">
+        <v>62</v>
+      </c>
+      <c r="E254" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>1676592102274</v>
+      </c>
+      <c r="B255" s="0">
+        <v>119605904125011</v>
+      </c>
+      <c r="C255" s="0">
+        <v>104</v>
+      </c>
+      <c r="D255" s="0">
+        <v>61</v>
+      </c>
+      <c r="E255" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>1676592102283</v>
+      </c>
+      <c r="B256" s="0">
+        <v>119605913094677</v>
+      </c>
+      <c r="C256" s="0">
+        <v>104</v>
+      </c>
+      <c r="D256" s="0">
+        <v>60</v>
+      </c>
+      <c r="E256" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>1676592102292</v>
+      </c>
+      <c r="B257" s="0">
+        <v>119605922085216</v>
+      </c>
+      <c r="C257" s="0">
+        <v>105</v>
+      </c>
+      <c r="D257" s="0">
+        <v>59</v>
+      </c>
+      <c r="E257" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>1676592102301</v>
+      </c>
+      <c r="B258" s="0">
+        <v>119605931064952</v>
+      </c>
+      <c r="C258" s="0">
+        <v>106</v>
+      </c>
+      <c r="D258" s="0">
+        <v>58</v>
+      </c>
+      <c r="E258" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>1676592102309</v>
+      </c>
+      <c r="B259" s="0">
+        <v>119605940027965</v>
+      </c>
+      <c r="C259" s="0">
+        <v>107</v>
+      </c>
+      <c r="D259" s="0">
+        <v>56</v>
+      </c>
+      <c r="E259" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>1676592102319</v>
+      </c>
+      <c r="B260" s="0">
+        <v>119605949026378</v>
+      </c>
+      <c r="C260" s="0">
+        <v>107</v>
+      </c>
+      <c r="D260" s="0">
+        <v>55</v>
+      </c>
+      <c r="E260" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>1676592102328</v>
+      </c>
+      <c r="B261" s="0">
+        <v>119605958002025</v>
+      </c>
+      <c r="C261" s="0">
+        <v>108</v>
+      </c>
+      <c r="D261" s="0">
+        <v>54</v>
+      </c>
+      <c r="E261" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>1676592102335</v>
+      </c>
+      <c r="B262" s="0">
+        <v>119605966975536</v>
+      </c>
+      <c r="C262" s="0">
+        <v>109</v>
+      </c>
+      <c r="D262" s="0">
+        <v>52</v>
+      </c>
+      <c r="E262" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>1676592102344</v>
+      </c>
+      <c r="B263" s="0">
+        <v>119605975967540</v>
+      </c>
+      <c r="C263" s="0">
+        <v>109</v>
+      </c>
+      <c r="D263" s="0">
+        <v>51</v>
+      </c>
+      <c r="E263" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>1676592102354</v>
+      </c>
+      <c r="B264" s="0">
+        <v>119605984933849</v>
+      </c>
+      <c r="C264" s="0">
+        <v>110</v>
+      </c>
+      <c r="D264" s="0">
+        <v>51</v>
+      </c>
+      <c r="E264" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>1676592102362</v>
+      </c>
+      <c r="B265" s="0">
+        <v>119605993924510</v>
+      </c>
+      <c r="C265" s="0">
+        <v>111</v>
+      </c>
+      <c r="D265" s="0">
+        <v>51</v>
+      </c>
+      <c r="E265" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>1676592102372</v>
+      </c>
+      <c r="B266" s="0">
+        <v>119606002904430</v>
+      </c>
+      <c r="C266" s="0">
+        <v>113</v>
+      </c>
+      <c r="D266" s="0">
+        <v>51</v>
+      </c>
+      <c r="E266" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>1676592102381</v>
+      </c>
+      <c r="B267" s="0">
+        <v>119606011884532</v>
+      </c>
+      <c r="C267" s="0">
+        <v>115</v>
+      </c>
+      <c r="D267" s="0">
+        <v>52</v>
+      </c>
+      <c r="E267" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>1676592102390</v>
+      </c>
+      <c r="B268" s="0">
+        <v>119606020866039</v>
+      </c>
+      <c r="C268" s="0">
+        <v>117</v>
+      </c>
+      <c r="D268" s="0">
+        <v>54</v>
+      </c>
+      <c r="E268" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>1676592102399</v>
+      </c>
+      <c r="B269" s="0">
+        <v>119606029835704</v>
+      </c>
+      <c r="C269" s="0">
+        <v>119</v>
+      </c>
+      <c r="D269" s="0">
+        <v>55</v>
+      </c>
+      <c r="E269" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>1676592102407</v>
+      </c>
+      <c r="B270" s="0">
+        <v>119606038823742</v>
+      </c>
+      <c r="C270" s="0">
+        <v>121</v>
+      </c>
+      <c r="D270" s="0">
+        <v>54</v>
+      </c>
+      <c r="E270" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>1676592102417</v>
+      </c>
+      <c r="B271" s="0">
+        <v>119606047804210</v>
+      </c>
+      <c r="C271" s="0">
+        <v>123</v>
+      </c>
+      <c r="D271" s="0">
+        <v>53</v>
+      </c>
+      <c r="E271" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>1676592102425</v>
+      </c>
+      <c r="B272" s="0">
+        <v>119606056785106</v>
+      </c>
+      <c r="C272" s="0">
+        <v>126</v>
+      </c>
+      <c r="D272" s="0">
+        <v>51</v>
+      </c>
+      <c r="E272" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>1676592102434</v>
+      </c>
+      <c r="B273" s="0">
+        <v>119606065764110</v>
+      </c>
+      <c r="C273" s="0">
+        <v>127</v>
+      </c>
+      <c r="D273" s="0">
+        <v>50</v>
+      </c>
+      <c r="E273" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>1676592102443</v>
+      </c>
+      <c r="B274" s="0">
+        <v>119606074743907</v>
+      </c>
+      <c r="C274" s="0">
+        <v>129</v>
+      </c>
+      <c r="D274" s="0">
+        <v>48</v>
+      </c>
+      <c r="E274" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>1676592102453</v>
+      </c>
+      <c r="B275" s="0">
+        <v>119606083724132</v>
+      </c>
+      <c r="C275" s="0">
+        <v>130</v>
+      </c>
+      <c r="D275" s="0">
+        <v>47</v>
+      </c>
+      <c r="E275" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>1676592102461</v>
+      </c>
+      <c r="B276" s="0">
+        <v>119606092705333</v>
+      </c>
+      <c r="C276" s="0">
+        <v>131</v>
+      </c>
+      <c r="D276" s="0">
+        <v>47</v>
+      </c>
+      <c r="E276" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>1676592102471</v>
+      </c>
+      <c r="B277" s="0">
+        <v>119606101683788</v>
+      </c>
+      <c r="C277" s="0">
+        <v>131</v>
+      </c>
+      <c r="D277" s="0">
+        <v>47</v>
+      </c>
+      <c r="E277" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>1676592102479</v>
+      </c>
+      <c r="B278" s="0">
+        <v>119606110663524</v>
+      </c>
+      <c r="C278" s="0">
+        <v>132</v>
+      </c>
+      <c r="D278" s="0">
+        <v>48</v>
+      </c>
+      <c r="E278" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>1676592102489</v>
+      </c>
+      <c r="B279" s="0">
+        <v>119606119643871</v>
+      </c>
+      <c r="C279" s="0">
+        <v>133</v>
+      </c>
+      <c r="D279" s="0">
+        <v>49</v>
+      </c>
+      <c r="E279" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>1676592102497</v>
+      </c>
+      <c r="B280" s="0">
+        <v>119606128624767</v>
+      </c>
+      <c r="C280" s="0">
+        <v>134</v>
+      </c>
+      <c r="D280" s="0">
+        <v>50</v>
+      </c>
+      <c r="E280" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>1676592102507</v>
+      </c>
+      <c r="B281" s="0">
+        <v>119606137603466</v>
+      </c>
+      <c r="C281" s="0">
+        <v>136</v>
+      </c>
+      <c r="D281" s="0">
+        <v>50</v>
+      </c>
+      <c r="E281" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>1676592102515</v>
+      </c>
+      <c r="B282" s="0">
+        <v>119606146584300</v>
+      </c>
+      <c r="C282" s="0">
+        <v>138</v>
+      </c>
+      <c r="D282" s="0">
+        <v>51</v>
+      </c>
+      <c r="E282" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>1676592102525</v>
+      </c>
+      <c r="B283" s="0">
+        <v>119606155563671</v>
+      </c>
+      <c r="C283" s="0">
+        <v>140</v>
+      </c>
+      <c r="D283" s="0">
+        <v>51</v>
+      </c>
+      <c r="E283" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>1676592102533</v>
+      </c>
+      <c r="B284" s="0">
+        <v>119606164544139</v>
+      </c>
+      <c r="C284" s="0">
+        <v>142</v>
+      </c>
+      <c r="D284" s="0">
+        <v>52</v>
+      </c>
+      <c r="E284" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>1676592102542</v>
+      </c>
+      <c r="B285" s="0">
+        <v>119606173509349</v>
+      </c>
+      <c r="C285" s="0">
+        <v>144</v>
+      </c>
+      <c r="D285" s="0">
+        <v>53</v>
+      </c>
+      <c r="E285" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>1676592102551</v>
+      </c>
+      <c r="B286" s="0">
+        <v>119606182491466</v>
+      </c>
+      <c r="C286" s="0">
+        <v>144</v>
+      </c>
+      <c r="D286" s="0">
+        <v>55</v>
+      </c>
+      <c r="E286" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>1676592102560</v>
+      </c>
+      <c r="B287" s="0">
+        <v>119606191481639</v>
+      </c>
+      <c r="C287" s="0">
+        <v>145</v>
+      </c>
+      <c r="D287" s="0">
+        <v>56</v>
+      </c>
+      <c r="E287" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>1676592102569</v>
+      </c>
+      <c r="B288" s="0">
+        <v>119606200464550</v>
+      </c>
+      <c r="C288" s="0">
+        <v>146</v>
+      </c>
+      <c r="D288" s="0">
+        <v>56</v>
+      </c>
+      <c r="E288" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>1676592102578</v>
+      </c>
+      <c r="B289" s="0">
+        <v>119606209444774</v>
+      </c>
+      <c r="C289" s="0">
+        <v>147</v>
+      </c>
+      <c r="D289" s="0">
+        <v>56</v>
+      </c>
+      <c r="E289" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>1676592102587</v>
+      </c>
+      <c r="B290" s="0">
+        <v>119606218411143</v>
+      </c>
+      <c r="C290" s="0">
+        <v>147</v>
+      </c>
+      <c r="D290" s="0">
+        <v>55</v>
+      </c>
+      <c r="E290" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>1676592102596</v>
+      </c>
+      <c r="B291" s="0">
+        <v>119606227402904</v>
+      </c>
+      <c r="C291" s="0">
+        <v>148</v>
+      </c>
+      <c r="D291" s="0">
+        <v>54</v>
+      </c>
+      <c r="E291" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>1676592102605</v>
+      </c>
+      <c r="B292" s="0">
+        <v>119606236382152</v>
+      </c>
+      <c r="C292" s="0">
+        <v>148</v>
+      </c>
+      <c r="D292" s="0">
+        <v>54</v>
+      </c>
+      <c r="E292" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>1676592102614</v>
+      </c>
+      <c r="B293" s="0">
+        <v>119606245363231</v>
+      </c>
+      <c r="C293" s="0">
+        <v>147</v>
+      </c>
+      <c r="D293" s="0">
+        <v>53</v>
+      </c>
+      <c r="E293" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>1676592102624</v>
+      </c>
+      <c r="B294" s="0">
+        <v>119606254345592</v>
+      </c>
+      <c r="C294" s="0">
+        <v>148</v>
+      </c>
+      <c r="D294" s="0">
+        <v>52</v>
+      </c>
+      <c r="E294" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>1676592102632</v>
+      </c>
+      <c r="B295" s="0">
+        <v>119606263319408</v>
+      </c>
+      <c r="C295" s="0">
+        <v>148</v>
+      </c>
+      <c r="D295" s="0">
+        <v>51</v>
+      </c>
+      <c r="E295" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>1676592102642</v>
+      </c>
+      <c r="B296" s="0">
+        <v>119606272303966</v>
+      </c>
+      <c r="C296" s="0">
+        <v>149</v>
+      </c>
+      <c r="D296" s="0">
+        <v>51</v>
+      </c>
+      <c r="E296" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>1676592102651</v>
+      </c>
+      <c r="B297" s="0">
+        <v>119606281282665</v>
+      </c>
+      <c r="C297" s="0">
+        <v>150</v>
+      </c>
+      <c r="D297" s="0">
+        <v>50</v>
+      </c>
+      <c r="E297" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>1676592102660</v>
+      </c>
+      <c r="B298" s="0">
+        <v>119606290262706</v>
+      </c>
+      <c r="C298" s="0">
+        <v>151</v>
+      </c>
+      <c r="D298" s="0">
+        <v>49</v>
+      </c>
+      <c r="E298" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>1676592102668</v>
+      </c>
+      <c r="B299" s="0">
+        <v>119606299242626</v>
+      </c>
+      <c r="C299" s="0">
+        <v>153</v>
+      </c>
+      <c r="D299" s="0">
+        <v>48</v>
+      </c>
+      <c r="E299" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>1676592102678</v>
+      </c>
+      <c r="B300" s="0">
+        <v>119606308223888</v>
+      </c>
+      <c r="C300" s="0">
+        <v>154</v>
+      </c>
+      <c r="D300" s="0">
+        <v>46</v>
+      </c>
+      <c r="E300" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>1676592102686</v>
+      </c>
+      <c r="B301" s="0">
+        <v>119606317194591</v>
+      </c>
+      <c r="C301" s="0">
+        <v>155</v>
+      </c>
+      <c r="D301" s="0">
+        <v>45</v>
+      </c>
+      <c r="E301" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>1676592102696</v>
+      </c>
+      <c r="B302" s="0">
+        <v>119606326182323</v>
+      </c>
+      <c r="C302" s="0">
+        <v>157</v>
+      </c>
+      <c r="D302" s="0">
+        <v>44</v>
+      </c>
+      <c r="E302" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>1676592102704</v>
+      </c>
+      <c r="B303" s="0">
+        <v>119606335162303</v>
+      </c>
+      <c r="C303" s="0">
+        <v>159</v>
+      </c>
+      <c r="D303" s="0">
+        <v>43</v>
+      </c>
+      <c r="E303" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>1676592102713</v>
+      </c>
+      <c r="B304" s="0">
+        <v>119606344143566</v>
+      </c>
+      <c r="C304" s="0">
+        <v>160</v>
+      </c>
+      <c r="D304" s="0">
+        <v>42</v>
+      </c>
+      <c r="E304" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>1676592102723</v>
+      </c>
+      <c r="B305" s="0">
+        <v>119606353122386</v>
+      </c>
+      <c r="C305" s="0">
+        <v>162</v>
+      </c>
+      <c r="D305" s="0">
+        <v>41</v>
+      </c>
+      <c r="E305" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>1676592102731</v>
+      </c>
+      <c r="B306" s="0">
+        <v>119606362101818</v>
+      </c>
+      <c r="C306" s="0">
+        <v>164</v>
+      </c>
+      <c r="D306" s="0">
+        <v>41</v>
+      </c>
+      <c r="E306" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>1676592102740</v>
+      </c>
+      <c r="B307" s="0">
+        <v>119606371082286</v>
+      </c>
+      <c r="C307" s="0">
+        <v>165</v>
+      </c>
+      <c r="D307" s="0">
+        <v>40</v>
+      </c>
+      <c r="E307" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>1676592102749</v>
+      </c>
+      <c r="B308" s="0">
+        <v>119606380063365</v>
+      </c>
+      <c r="C308" s="0">
+        <v>167</v>
+      </c>
+      <c r="D308" s="0">
+        <v>40</v>
+      </c>
+      <c r="E308" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>1676592102759</v>
+      </c>
+      <c r="B309" s="0">
+        <v>119606389042186</v>
+      </c>
+      <c r="C309" s="0">
+        <v>169</v>
+      </c>
+      <c r="D309" s="0">
+        <v>41</v>
+      </c>
+      <c r="E309" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>1676592102767</v>
+      </c>
+      <c r="B310" s="0">
+        <v>119606398019115</v>
+      </c>
+      <c r="C310" s="0">
+        <v>171</v>
+      </c>
+      <c r="D310" s="0">
+        <v>41</v>
+      </c>
+      <c r="E310" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>1676592102775</v>
+      </c>
+      <c r="B311" s="0">
+        <v>119606406994884</v>
+      </c>
+      <c r="C311" s="0">
+        <v>172</v>
+      </c>
+      <c r="D311" s="0">
+        <v>42</v>
+      </c>
+      <c r="E311" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>1676592102785</v>
+      </c>
+      <c r="B312" s="0">
+        <v>119606415986094</v>
+      </c>
+      <c r="C312" s="0">
+        <v>174</v>
+      </c>
+      <c r="D312" s="0">
+        <v>43</v>
+      </c>
+      <c r="E312" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>1676592102793</v>
+      </c>
+      <c r="B313" s="0">
+        <v>119606424959239</v>
+      </c>
+      <c r="C313" s="0">
+        <v>175</v>
+      </c>
+      <c r="D313" s="0">
+        <v>45</v>
+      </c>
+      <c r="E313" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>1676592102802</v>
+      </c>
+      <c r="B314" s="0">
+        <v>119606433941844</v>
+      </c>
+      <c r="C314" s="0">
+        <v>176</v>
+      </c>
+      <c r="D314" s="0">
+        <v>46</v>
+      </c>
+      <c r="E314" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>1676592102812</v>
+      </c>
+      <c r="B315" s="0">
+        <v>119606442924755</v>
+      </c>
+      <c r="C315" s="0">
+        <v>177</v>
+      </c>
+      <c r="D315" s="0">
+        <v>48</v>
+      </c>
+      <c r="E315" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>1676592102820</v>
+      </c>
+      <c r="B316" s="0">
+        <v>119606451891734</v>
+      </c>
+      <c r="C316" s="0">
+        <v>178</v>
+      </c>
+      <c r="D316" s="0">
+        <v>49</v>
+      </c>
+      <c r="E316" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>1676592102830</v>
+      </c>
+      <c r="B317" s="0">
+        <v>119606460881908</v>
+      </c>
+      <c r="C317" s="0">
+        <v>179</v>
+      </c>
+      <c r="D317" s="0">
+        <v>50</v>
+      </c>
+      <c r="E317" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>1676592102839</v>
+      </c>
+      <c r="B318" s="0">
+        <v>119606469861217</v>
+      </c>
+      <c r="C318" s="0">
+        <v>180</v>
+      </c>
+      <c r="D318" s="0">
+        <v>50</v>
+      </c>
+      <c r="E318" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>1676592102848</v>
+      </c>
+      <c r="B319" s="0">
+        <v>119606478841564</v>
+      </c>
+      <c r="C319" s="0">
+        <v>181</v>
+      </c>
+      <c r="D319" s="0">
+        <v>50</v>
+      </c>
+      <c r="E319" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>1676592102856</v>
+      </c>
+      <c r="B320" s="0">
+        <v>119606487822765</v>
+      </c>
+      <c r="C320" s="0">
+        <v>182</v>
+      </c>
+      <c r="D320" s="0">
+        <v>50</v>
+      </c>
+      <c r="E320" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>1676592102866</v>
+      </c>
+      <c r="B321" s="0">
+        <v>119606496801647</v>
+      </c>
+      <c r="C321" s="0">
+        <v>182</v>
+      </c>
+      <c r="D321" s="0">
+        <v>51</v>
+      </c>
+      <c r="E321" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>1676592102875</v>
+      </c>
+      <c r="B322" s="0">
+        <v>119606505781505</v>
+      </c>
+      <c r="C322" s="0">
+        <v>182</v>
+      </c>
+      <c r="D322" s="0">
+        <v>51</v>
+      </c>
+      <c r="E322" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>1676592102883</v>
+      </c>
+      <c r="B323" s="0">
+        <v>119606514761791</v>
+      </c>
+      <c r="C323" s="0">
+        <v>182</v>
+      </c>
+      <c r="D323" s="0">
+        <v>51</v>
+      </c>
+      <c r="E323" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>1676592102893</v>
+      </c>
+      <c r="B324" s="0">
+        <v>119606523739940</v>
+      </c>
+      <c r="C324" s="0">
+        <v>181</v>
+      </c>
+      <c r="D324" s="0">
+        <v>51</v>
+      </c>
+      <c r="E324" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>1676592102902</v>
+      </c>
+      <c r="B325" s="0">
+        <v>119606532721385</v>
+      </c>
+      <c r="C325" s="0">
+        <v>180</v>
+      </c>
+      <c r="D325" s="0">
+        <v>52</v>
+      </c>
+      <c r="E325" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>1676592102911</v>
+      </c>
+      <c r="B326" s="0">
+        <v>119606541704112</v>
+      </c>
+      <c r="C326" s="0">
+        <v>179</v>
+      </c>
+      <c r="D326" s="0">
+        <v>52</v>
+      </c>
+      <c r="E326" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>1676592102919</v>
+      </c>
+      <c r="B327" s="0">
+        <v>119606550675060</v>
+      </c>
+      <c r="C327" s="0">
+        <v>177</v>
+      </c>
+      <c r="D327" s="0">
+        <v>53</v>
+      </c>
+      <c r="E327" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>1676592102928</v>
+      </c>
+      <c r="B328" s="0">
+        <v>119606559662425</v>
+      </c>
+      <c r="C328" s="0">
+        <v>176</v>
+      </c>
+      <c r="D328" s="0">
+        <v>53</v>
+      </c>
+      <c r="E328" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>1676592102937</v>
+      </c>
+      <c r="B329" s="0">
+        <v>119606568641307</v>
+      </c>
+      <c r="C329" s="0">
+        <v>175</v>
+      </c>
+      <c r="D329" s="0">
+        <v>53</v>
+      </c>
+      <c r="E329" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>1676592102946</v>
+      </c>
+      <c r="B330" s="0">
+        <v>119606577621288</v>
+      </c>
+      <c r="C330" s="0">
+        <v>175</v>
+      </c>
+      <c r="D330" s="0">
+        <v>54</v>
+      </c>
+      <c r="E330" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>1676592102955</v>
+      </c>
+      <c r="B331" s="0">
+        <v>119606586601146</v>
+      </c>
+      <c r="C331" s="0">
+        <v>173</v>
+      </c>
+      <c r="D331" s="0">
+        <v>54</v>
+      </c>
+      <c r="E331" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>1676592102964</v>
+      </c>
+      <c r="B332" s="0">
+        <v>119606595573741</v>
+      </c>
+      <c r="C332" s="0">
+        <v>172</v>
+      </c>
+      <c r="D332" s="0">
+        <v>55</v>
+      </c>
+      <c r="E332" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>1676592102973</v>
+      </c>
+      <c r="B333" s="0">
+        <v>119606604561046</v>
+      </c>
+      <c r="C333" s="0">
+        <v>171</v>
+      </c>
+      <c r="D333" s="0">
+        <v>55</v>
+      </c>
+      <c r="E333" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>1676592102982</v>
+      </c>
+      <c r="B334" s="0">
+        <v>119606613537914</v>
+      </c>
+      <c r="C334" s="0">
+        <v>170</v>
+      </c>
+      <c r="D334" s="0">
+        <v>56</v>
+      </c>
+      <c r="E334" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>1676592102991</v>
+      </c>
+      <c r="B335" s="0">
+        <v>119606622509227</v>
+      </c>
+      <c r="C335" s="0">
+        <v>168</v>
+      </c>
+      <c r="D335" s="0">
+        <v>57</v>
+      </c>
+      <c r="E335" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>1676592103000</v>
+      </c>
+      <c r="B336" s="0">
+        <v>119606631504771</v>
+      </c>
+      <c r="C336" s="0">
+        <v>167</v>
+      </c>
+      <c r="D336" s="0">
+        <v>58</v>
+      </c>
+      <c r="E336" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>1676592103009</v>
+      </c>
+      <c r="B337" s="0">
+        <v>119606640481029</v>
+      </c>
+      <c r="C337" s="0">
+        <v>166</v>
+      </c>
+      <c r="D337" s="0">
+        <v>59</v>
+      </c>
+      <c r="E337" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>1676592103019</v>
+      </c>
+      <c r="B338" s="0">
+        <v>119606649460704</v>
+      </c>
+      <c r="C338" s="0">
+        <v>166</v>
+      </c>
+      <c r="D338" s="0">
+        <v>59</v>
+      </c>
+      <c r="E338" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>1676592103028</v>
+      </c>
+      <c r="B339" s="0">
+        <v>119606658437999</v>
+      </c>
+      <c r="C339" s="0">
+        <v>166</v>
+      </c>
+      <c r="D339" s="0">
+        <v>60</v>
+      </c>
+      <c r="E339" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>1676592103036</v>
+      </c>
+      <c r="B340" s="0">
+        <v>119606667422130</v>
+      </c>
+      <c r="C340" s="0">
+        <v>166</v>
+      </c>
+      <c r="D340" s="0">
+        <v>61</v>
+      </c>
+      <c r="E340" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>1676592103046</v>
+      </c>
+      <c r="B341" s="0">
+        <v>119606676391796</v>
+      </c>
+      <c r="C341" s="0">
+        <v>167</v>
+      </c>
+      <c r="D341" s="0">
+        <v>62</v>
+      </c>
+      <c r="E341" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>1676592103055</v>
+      </c>
+      <c r="B342" s="0">
+        <v>119606685380565</v>
+      </c>
+      <c r="C342" s="0">
+        <v>167</v>
+      </c>
+      <c r="D342" s="0">
+        <v>63</v>
+      </c>
+      <c r="E342" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>1676592103064</v>
+      </c>
+      <c r="B343" s="0">
+        <v>119606694360607</v>
+      </c>
+      <c r="C343" s="0">
+        <v>169</v>
+      </c>
+      <c r="D343" s="0">
+        <v>64</v>
+      </c>
+      <c r="E343" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>1676592103072</v>
+      </c>
+      <c r="B344" s="0">
+        <v>119606703341625</v>
+      </c>
+      <c r="C344" s="0">
+        <v>170</v>
+      </c>
+      <c r="D344" s="0">
+        <v>64</v>
+      </c>
+      <c r="E344" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>1676592103081</v>
+      </c>
+      <c r="B345" s="0">
+        <v>119606712320507</v>
+      </c>
+      <c r="C345" s="0">
+        <v>172</v>
+      </c>
+      <c r="D345" s="0">
+        <v>64</v>
+      </c>
+      <c r="E345" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>1676592103090</v>
+      </c>
+      <c r="B346" s="0">
+        <v>119606721300548</v>
+      </c>
+      <c r="C346" s="0">
+        <v>173</v>
+      </c>
+      <c r="D346" s="0">
+        <v>65</v>
+      </c>
+      <c r="E346" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>1676592103099</v>
+      </c>
+      <c r="B347" s="0">
+        <v>119606730280529</v>
+      </c>
+      <c r="C347" s="0">
+        <v>174</v>
+      </c>
+      <c r="D347" s="0">
+        <v>65</v>
+      </c>
+      <c r="E347" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>1676592103108</v>
+      </c>
+      <c r="B348" s="0">
+        <v>119606739261424</v>
+      </c>
+      <c r="C348" s="0">
+        <v>176</v>
+      </c>
+      <c r="D348" s="0">
+        <v>65</v>
+      </c>
+      <c r="E348" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>1676592103117</v>
+      </c>
+      <c r="B349" s="0">
+        <v>119606748240489</v>
+      </c>
+      <c r="C349" s="0">
+        <v>177</v>
+      </c>
+      <c r="D349" s="0">
+        <v>65</v>
+      </c>
+      <c r="E349" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>1676592103126</v>
+      </c>
+      <c r="B350" s="0">
+        <v>119606757216625</v>
+      </c>
+      <c r="C350" s="0">
+        <v>178</v>
+      </c>
+      <c r="D350" s="0">
+        <v>66</v>
+      </c>
+      <c r="E350" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>1676592103136</v>
+      </c>
+      <c r="B351" s="0">
+        <v>119606766200450</v>
+      </c>
+      <c r="C351" s="0">
+        <v>179</v>
+      </c>
+      <c r="D351" s="0">
+        <v>66</v>
+      </c>
+      <c r="E351" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>1676592103145</v>
+      </c>
+      <c r="B352" s="0">
+        <v>119606775184703</v>
+      </c>
+      <c r="C352" s="0">
+        <v>180</v>
+      </c>
+      <c r="D352" s="0">
+        <v>66</v>
+      </c>
+      <c r="E352" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>1676592103153</v>
+      </c>
+      <c r="B353" s="0">
+        <v>119606784156261</v>
+      </c>
+      <c r="C353" s="0">
+        <v>181</v>
+      </c>
+      <c r="D353" s="0">
+        <v>66</v>
+      </c>
+      <c r="E353" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>1676592103162</v>
+      </c>
+      <c r="B354" s="0">
+        <v>119606793140209</v>
+      </c>
+      <c r="C354" s="0">
+        <v>182</v>
+      </c>
+      <c r="D354" s="0">
+        <v>66</v>
+      </c>
+      <c r="E354" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>1676592103171</v>
+      </c>
+      <c r="B355" s="0">
+        <v>119606802118297</v>
+      </c>
+      <c r="C355" s="0">
+        <v>183</v>
+      </c>
+      <c r="D355" s="0">
+        <v>66</v>
+      </c>
+      <c r="E355" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>1676592103180</v>
+      </c>
+      <c r="B356" s="0">
+        <v>119606811101329</v>
+      </c>
+      <c r="C356" s="0">
+        <v>185</v>
+      </c>
+      <c r="D356" s="0">
+        <v>66</v>
+      </c>
+      <c r="E356" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>1676592103190</v>
+      </c>
+      <c r="B357" s="0">
+        <v>119606820081554</v>
+      </c>
+      <c r="C357" s="0">
+        <v>186</v>
+      </c>
+      <c r="D357" s="0">
+        <v>66</v>
+      </c>
+      <c r="E357" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>1676592103199</v>
+      </c>
+      <c r="B358" s="0">
+        <v>119606829048046</v>
+      </c>
+      <c r="C358" s="0">
+        <v>187</v>
+      </c>
+      <c r="D358" s="0">
+        <v>67</v>
+      </c>
+      <c r="E358" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>1676592103207</v>
+      </c>
+      <c r="B359" s="0">
+        <v>119606838041393</v>
+      </c>
+      <c r="C359" s="0">
+        <v>188</v>
+      </c>
+      <c r="D359" s="0">
+        <v>67</v>
+      </c>
+      <c r="E359" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>1676592103216</v>
+      </c>
+      <c r="B360" s="0">
+        <v>119606847010997</v>
+      </c>
+      <c r="C360" s="0">
+        <v>189</v>
+      </c>
+      <c r="D360" s="0">
+        <v>67</v>
+      </c>
+      <c r="E360" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>1676592103224</v>
+      </c>
+      <c r="B361" s="0">
+        <v>119606855998485</v>
+      </c>
+      <c r="C361" s="0">
+        <v>191</v>
+      </c>
+      <c r="D361" s="0">
+        <v>67</v>
+      </c>
+      <c r="E361" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>1676592103233</v>
+      </c>
+      <c r="B362" s="0">
+        <v>119606864979930</v>
+      </c>
+      <c r="C362" s="0">
+        <v>191</v>
+      </c>
+      <c r="D362" s="0">
+        <v>67</v>
+      </c>
+      <c r="E362" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>1676592103243</v>
+      </c>
+      <c r="B363" s="0">
+        <v>119606873959728</v>
+      </c>
+      <c r="C363" s="0">
+        <v>192</v>
+      </c>
+      <c r="D363" s="0">
+        <v>68</v>
+      </c>
+      <c r="E363" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>1676592103251</v>
+      </c>
+      <c r="B364" s="0">
+        <v>119606882941234</v>
+      </c>
+      <c r="C364" s="0">
+        <v>192</v>
+      </c>
+      <c r="D364" s="0">
+        <v>68</v>
+      </c>
+      <c r="E364" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>1676592103260</v>
+      </c>
+      <c r="B365" s="0">
+        <v>119606891919689</v>
+      </c>
+      <c r="C365" s="0">
+        <v>192</v>
+      </c>
+      <c r="D365" s="0">
+        <v>69</v>
+      </c>
+      <c r="E365" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>1676592103270</v>
+      </c>
+      <c r="B366" s="0">
+        <v>119606900896678</v>
+      </c>
+      <c r="C366" s="0">
+        <v>191</v>
+      </c>
+      <c r="D366" s="0">
+        <v>69</v>
+      </c>
+      <c r="E366" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>1676592103279</v>
+      </c>
+      <c r="B367" s="0">
+        <v>119606909879589</v>
+      </c>
+      <c r="C367" s="0">
+        <v>190</v>
+      </c>
+      <c r="D367" s="0">
+        <v>69</v>
+      </c>
+      <c r="E367" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>1676592103288</v>
+      </c>
+      <c r="B368" s="0">
+        <v>119606918863842</v>
+      </c>
+      <c r="C368" s="0">
+        <v>189</v>
+      </c>
+      <c r="D368" s="0">
+        <v>71</v>
+      </c>
+      <c r="E368" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>1676592103297</v>
+      </c>
+      <c r="B369" s="0">
+        <v>119606927836498</v>
+      </c>
+      <c r="C369" s="0">
+        <v>187</v>
+      </c>
+      <c r="D369" s="0">
+        <v>74</v>
+      </c>
+      <c r="E369" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>1676592103305</v>
+      </c>
+      <c r="B370" s="0">
+        <v>119606936819530</v>
+      </c>
+      <c r="C370" s="0">
+        <v>186</v>
+      </c>
+      <c r="D370" s="0">
+        <v>77</v>
+      </c>
+      <c r="E370" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>1676592103315</v>
+      </c>
+      <c r="B371" s="0">
+        <v>119606945799205</v>
+      </c>
+      <c r="C371" s="0">
+        <v>187</v>
+      </c>
+      <c r="D371" s="0">
+        <v>79</v>
+      </c>
+      <c r="E371" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>1676592103323</v>
+      </c>
+      <c r="B372" s="0">
+        <v>119606954780773</v>
+      </c>
+      <c r="C372" s="0">
+        <v>189</v>
+      </c>
+      <c r="D372" s="0">
+        <v>79</v>
+      </c>
+      <c r="E372" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>1676592103332</v>
+      </c>
+      <c r="B373" s="0">
+        <v>119606963759532</v>
+      </c>
+      <c r="C373" s="0">
+        <v>191</v>
+      </c>
+      <c r="D373" s="0">
+        <v>79</v>
+      </c>
+      <c r="E373" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>1676592103342</v>
+      </c>
+      <c r="B374" s="0">
+        <v>119606972739025</v>
+      </c>
+      <c r="C374" s="0">
+        <v>193</v>
+      </c>
+      <c r="D374" s="0">
+        <v>77</v>
+      </c>
+      <c r="E374" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>1676592103350</v>
+      </c>
+      <c r="B375" s="0">
+        <v>119606981719310</v>
+      </c>
+      <c r="C375" s="0">
+        <v>196</v>
+      </c>
+      <c r="D375" s="0">
+        <v>76</v>
+      </c>
+      <c r="E375" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>1676592103360</v>
+      </c>
+      <c r="B376" s="0">
+        <v>119606990699717</v>
+      </c>
+      <c r="C376" s="0">
+        <v>199</v>
+      </c>
+      <c r="D376" s="0">
+        <v>73</v>
+      </c>
+      <c r="E376" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>1676592103368</v>
+      </c>
+      <c r="B377" s="0">
+        <v>119606999679210</v>
+      </c>
+      <c r="C377" s="0">
+        <v>201</v>
+      </c>
+      <c r="D377" s="0">
+        <v>71</v>
+      </c>
+      <c r="E377" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>1676592103378</v>
+      </c>
+      <c r="B378" s="0">
+        <v>119607008659862</v>
+      </c>
+      <c r="C378" s="0">
+        <v>204</v>
+      </c>
+      <c r="D378" s="0">
+        <v>70</v>
+      </c>
+      <c r="E378" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>1676592103386</v>
+      </c>
+      <c r="B379" s="0">
+        <v>119607017627452</v>
+      </c>
+      <c r="C379" s="0">
+        <v>206</v>
+      </c>
+      <c r="D379" s="0">
+        <v>69</v>
+      </c>
+      <c r="E379" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>1676592103396</v>
+      </c>
+      <c r="B380" s="0">
+        <v>119607026620433</v>
+      </c>
+      <c r="C380" s="0">
+        <v>208</v>
+      </c>
+      <c r="D380" s="0">
+        <v>69</v>
+      </c>
+      <c r="E380" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>1676592103405</v>
+      </c>
+      <c r="B381" s="0">
+        <v>119607035599132</v>
+      </c>
+      <c r="C381" s="0">
+        <v>210</v>
+      </c>
+      <c r="D381" s="0">
+        <v>69</v>
+      </c>
+      <c r="E381" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>1676592103413</v>
+      </c>
+      <c r="B382" s="0">
+        <v>119607044576000</v>
+      </c>
+      <c r="C382" s="0">
+        <v>212</v>
+      </c>
+      <c r="D382" s="0">
+        <v>69</v>
+      </c>
+      <c r="E382" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>1676592103422</v>
+      </c>
+      <c r="B383" s="0">
+        <v>119607053559032</v>
+      </c>
+      <c r="C383" s="0">
+        <v>214</v>
+      </c>
+      <c r="D383" s="0">
+        <v>69</v>
+      </c>
+      <c r="E383" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>1676592103431</v>
+      </c>
+      <c r="B384" s="0">
+        <v>119607062531138</v>
+      </c>
+      <c r="C384" s="0">
+        <v>217</v>
+      </c>
+      <c r="D384" s="0">
+        <v>68</v>
+      </c>
+      <c r="E384" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>1676592103440</v>
+      </c>
+      <c r="B385" s="0">
+        <v>119607071519115</v>
+      </c>
+      <c r="C385" s="0">
+        <v>220</v>
+      </c>
+      <c r="D385" s="0">
+        <v>67</v>
+      </c>
+      <c r="E385" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>1676592103450</v>
+      </c>
+      <c r="B386" s="0">
+        <v>119607080498790</v>
+      </c>
+      <c r="C386" s="0">
+        <v>223</v>
+      </c>
+      <c r="D386" s="0">
+        <v>67</v>
+      </c>
+      <c r="E386" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>1676592103458</v>
+      </c>
+      <c r="B387" s="0">
+        <v>119607089478710</v>
+      </c>
+      <c r="C387" s="0">
+        <v>226</v>
+      </c>
+      <c r="D387" s="0">
+        <v>66</v>
+      </c>
+      <c r="E387" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>1676592103467</v>
+      </c>
+      <c r="B388" s="0">
+        <v>119607098457286</v>
+      </c>
+      <c r="C388" s="0">
+        <v>229</v>
+      </c>
+      <c r="D388" s="0">
+        <v>65</v>
+      </c>
+      <c r="E388" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>1676592103477</v>
+      </c>
+      <c r="B389" s="0">
+        <v>119607107438671</v>
+      </c>
+      <c r="C389" s="0">
+        <v>233</v>
+      </c>
+      <c r="D389" s="0">
+        <v>65</v>
+      </c>
+      <c r="E389" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>1676592103486</v>
+      </c>
+      <c r="B390" s="0">
+        <v>119607116409678</v>
+      </c>
+      <c r="C390" s="0">
+        <v>236</v>
+      </c>
+      <c r="D390" s="0">
+        <v>65</v>
+      </c>
+      <c r="E390" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>1676592103494</v>
+      </c>
+      <c r="B391" s="0">
+        <v>119607125398754</v>
+      </c>
+      <c r="C391" s="0">
+        <v>240</v>
+      </c>
+      <c r="D391" s="0">
+        <v>65</v>
+      </c>
+      <c r="E391" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>1676592103503</v>
+      </c>
+      <c r="B392" s="0">
+        <v>119607134365123</v>
+      </c>
+      <c r="C392" s="0">
+        <v>243</v>
+      </c>
+      <c r="D392" s="0">
+        <v>63</v>
+      </c>
+      <c r="E392" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>1676592103512</v>
+      </c>
+      <c r="B393" s="0">
+        <v>119607143344554</v>
+      </c>
+      <c r="C393" s="0">
+        <v>245</v>
+      </c>
+      <c r="D393" s="0">
+        <v>62</v>
+      </c>
+      <c r="E393" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>1676592103522</v>
+      </c>
+      <c r="B394" s="0">
+        <v>119607152330456</v>
+      </c>
+      <c r="C394" s="0">
+        <v>246</v>
+      </c>
+      <c r="D394" s="0">
+        <v>61</v>
+      </c>
+      <c r="E394" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>1676592103530</v>
+      </c>
+      <c r="B395" s="0">
+        <v>119607161317271</v>
+      </c>
+      <c r="C395" s="0">
+        <v>248</v>
+      </c>
+      <c r="D395" s="0">
+        <v>60</v>
+      </c>
+      <c r="E395" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>1676592103539</v>
+      </c>
+      <c r="B396" s="0">
+        <v>119607170299571</v>
+      </c>
+      <c r="C396" s="0">
+        <v>248</v>
+      </c>
+      <c r="D396" s="0">
+        <v>61</v>
+      </c>
+      <c r="E396" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>1676592103548</v>
+      </c>
+      <c r="B397" s="0">
+        <v>119607179274730</v>
+      </c>
+      <c r="C397" s="0">
+        <v>247</v>
+      </c>
+      <c r="D397" s="0">
+        <v>61</v>
+      </c>
+      <c r="E397" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>1676592103557</v>
+      </c>
+      <c r="B398" s="0">
+        <v>119607188258251</v>
+      </c>
+      <c r="C398" s="0">
+        <v>247</v>
+      </c>
+      <c r="D398" s="0">
+        <v>62</v>
+      </c>
+      <c r="E398" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>1676592103566</v>
+      </c>
+      <c r="B399" s="0">
+        <v>119607197242137</v>
+      </c>
+      <c r="C399" s="0">
+        <v>246</v>
+      </c>
+      <c r="D399" s="0">
+        <v>63</v>
+      </c>
+      <c r="E399" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>1676592103576</v>
+      </c>
+      <c r="B400" s="0">
+        <v>119607206207775</v>
+      </c>
+      <c r="C400" s="0">
+        <v>246</v>
+      </c>
+      <c r="D400" s="0">
+        <v>63</v>
+      </c>
+      <c r="E400" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>1676592103585</v>
+      </c>
+      <c r="B401" s="0">
+        <v>119607215198253</v>
+      </c>
+      <c r="C401" s="0">
+        <v>245</v>
+      </c>
+      <c r="D401" s="0">
+        <v>64</v>
+      </c>
+      <c r="E401" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>1676592103593</v>
+      </c>
+      <c r="B402" s="0">
+        <v>119607224178234</v>
+      </c>
+      <c r="C402" s="0">
+        <v>246</v>
+      </c>
+      <c r="D402" s="0">
+        <v>64</v>
+      </c>
+      <c r="E402" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>1676592103602</v>
+      </c>
+      <c r="B403" s="0">
+        <v>119607233158153</v>
+      </c>
+      <c r="C403" s="0">
+        <v>247</v>
+      </c>
+      <c r="D403" s="0">
+        <v>63</v>
+      </c>
+      <c r="E403" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>1676592103612</v>
+      </c>
+      <c r="B404" s="0">
+        <v>119607242136790</v>
+      </c>
+      <c r="C404" s="0">
+        <v>248</v>
+      </c>
+      <c r="D404" s="0">
+        <v>63</v>
+      </c>
+      <c r="E404" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>1676592103620</v>
+      </c>
+      <c r="B405" s="0">
+        <v>119607251104075</v>
+      </c>
+      <c r="C405" s="0">
+        <v>249</v>
+      </c>
+      <c r="D405" s="0">
+        <v>62</v>
+      </c>
+      <c r="E405" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>1676592103629</v>
+      </c>
+      <c r="B406" s="0">
+        <v>119607260086437</v>
+      </c>
+      <c r="C406" s="0">
+        <v>251</v>
+      </c>
+      <c r="D406" s="0">
+        <v>61</v>
+      </c>
+      <c r="E406" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>1676592103639</v>
+      </c>
+      <c r="B407" s="0">
+        <v>119607269069590</v>
+      </c>
+      <c r="C407" s="0">
+        <v>252</v>
+      </c>
+      <c r="D407" s="0">
+        <v>61</v>
+      </c>
+      <c r="E407" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>1676592103647</v>
+      </c>
+      <c r="B408" s="0">
+        <v>119607278060069</v>
+      </c>
+      <c r="C408" s="0">
+        <v>254</v>
+      </c>
+      <c r="D408" s="0">
+        <v>60</v>
+      </c>
+      <c r="E408" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>1676592103656</v>
+      </c>
+      <c r="B409" s="0">
+        <v>119607287023387</v>
+      </c>
+      <c r="C409" s="0">
+        <v>255</v>
+      </c>
+      <c r="D409" s="0">
+        <v>59</v>
+      </c>
+      <c r="E409" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>1676592103665</v>
+      </c>
+      <c r="B410" s="0">
+        <v>119607296006419</v>
+      </c>
+      <c r="C410" s="0">
+        <v>256</v>
+      </c>
+      <c r="D410" s="0">
+        <v>59</v>
+      </c>
+      <c r="E410" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>1676592103674</v>
+      </c>
+      <c r="B411" s="0">
+        <v>119607304987987</v>
+      </c>
+      <c r="C411" s="0">
+        <v>257</v>
+      </c>
+      <c r="D411" s="0">
+        <v>58</v>
+      </c>
+      <c r="E411" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>1676592103682</v>
+      </c>
+      <c r="B412" s="0">
+        <v>119607313968883</v>
+      </c>
+      <c r="C412" s="0">
+        <v>258</v>
+      </c>
+      <c r="D412" s="0">
+        <v>58</v>
+      </c>
+      <c r="E412" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>1676592103692</v>
+      </c>
+      <c r="B413" s="0">
+        <v>119607322946849</v>
+      </c>
+      <c r="C413" s="0">
+        <v>259</v>
+      </c>
+      <c r="D413" s="0">
+        <v>58</v>
+      </c>
+      <c r="E413" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>1676592103701</v>
+      </c>
+      <c r="B414" s="0">
+        <v>119607331929882</v>
+      </c>
+      <c r="C414" s="0">
+        <v>259</v>
+      </c>
+      <c r="D414" s="0">
+        <v>58</v>
+      </c>
+      <c r="E414" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>1676592103710</v>
+      </c>
+      <c r="B415" s="0">
+        <v>119607340909862</v>
+      </c>
+      <c r="C415" s="0">
+        <v>259</v>
+      </c>
+      <c r="D415" s="0">
+        <v>58</v>
+      </c>
+      <c r="E415" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>1676592103719</v>
+      </c>
+      <c r="B416" s="0">
+        <v>119607349886852</v>
+      </c>
+      <c r="C416" s="0">
+        <v>258</v>
+      </c>
+      <c r="D416" s="0">
+        <v>59</v>
+      </c>
+      <c r="E416" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>1676592103727</v>
+      </c>
+      <c r="B417" s="0">
+        <v>119607358868541</v>
+      </c>
+      <c r="C417" s="0">
+        <v>258</v>
+      </c>
+      <c r="D417" s="0">
+        <v>59</v>
+      </c>
+      <c r="E417" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>1676592103736</v>
+      </c>
+      <c r="B418" s="0">
+        <v>119607367849070</v>
+      </c>
+      <c r="C418" s="0">
+        <v>257</v>
+      </c>
+      <c r="D418" s="0">
+        <v>60</v>
+      </c>
+      <c r="E418" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>1676592103746</v>
+      </c>
+      <c r="B419" s="0">
+        <v>119607376828685</v>
+      </c>
+      <c r="C419" s="0">
+        <v>256</v>
+      </c>
+      <c r="D419" s="0">
+        <v>61</v>
+      </c>
+      <c r="E419" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>1676592103754</v>
+      </c>
+      <c r="B420" s="0">
+        <v>119607385809459</v>
+      </c>
+      <c r="C420" s="0">
+        <v>256</v>
+      </c>
+      <c r="D420" s="0">
+        <v>63</v>
+      </c>
+      <c r="E420" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>1676592103764</v>
+      </c>
+      <c r="B421" s="0">
+        <v>119607394785533</v>
+      </c>
+      <c r="C421" s="0">
+        <v>255</v>
+      </c>
+      <c r="D421" s="0">
+        <v>64</v>
+      </c>
+      <c r="E421" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>1676592103773</v>
+      </c>
+      <c r="B422" s="0">
+        <v>119607403768077</v>
+      </c>
+      <c r="C422" s="0">
+        <v>254</v>
+      </c>
+      <c r="D422" s="0">
+        <v>64</v>
+      </c>
+      <c r="E422" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>1676592103781</v>
+      </c>
+      <c r="B423" s="0">
+        <v>119607412746227</v>
+      </c>
+      <c r="C423" s="0">
+        <v>254</v>
+      </c>
+      <c r="D423" s="0">
+        <v>65</v>
+      </c>
+      <c r="E423" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>1676592103791</v>
+      </c>
+      <c r="B424" s="0">
+        <v>119607421730419</v>
+      </c>
+      <c r="C424" s="0">
+        <v>254</v>
+      </c>
+      <c r="D424" s="0">
+        <v>65</v>
+      </c>
+      <c r="E424" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>1676592103799</v>
+      </c>
+      <c r="B425" s="0">
+        <v>119607430709239</v>
+      </c>
+      <c r="C425" s="0">
+        <v>254</v>
+      </c>
+      <c r="D425" s="0">
+        <v>65</v>
+      </c>
+      <c r="E425" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>1676592103809</v>
+      </c>
+      <c r="B426" s="0">
+        <v>119607439686168</v>
+      </c>
+      <c r="C426" s="0">
+        <v>254</v>
+      </c>
+      <c r="D426" s="0">
+        <v>65</v>
+      </c>
+      <c r="E426" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>1676592103818</v>
+      </c>
+      <c r="B427" s="0">
+        <v>119607448665661</v>
+      </c>
+      <c r="C427" s="0">
+        <v>254</v>
+      </c>
+      <c r="D427" s="0">
+        <v>65</v>
+      </c>
+      <c r="E427" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>1676592103826</v>
+      </c>
+      <c r="B428" s="0">
+        <v>119607457650706</v>
+      </c>
+      <c r="C428" s="0">
+        <v>255</v>
+      </c>
+      <c r="D428" s="0">
+        <v>65</v>
+      </c>
+      <c r="E428" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>1676592103836</v>
+      </c>
+      <c r="B429" s="0">
+        <v>119607466626781</v>
+      </c>
+      <c r="C429" s="0">
+        <v>255</v>
+      </c>
+      <c r="D429" s="0">
+        <v>65</v>
+      </c>
+      <c r="E429" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>1676592103844</v>
+      </c>
+      <c r="B430" s="0">
+        <v>119607475607860</v>
+      </c>
+      <c r="C430" s="0">
+        <v>256</v>
+      </c>
+      <c r="D430" s="0">
+        <v>65</v>
+      </c>
+      <c r="E430" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>1676592103854</v>
+      </c>
+      <c r="B431" s="0">
+        <v>119607484586376</v>
+      </c>
+      <c r="C431" s="0">
+        <v>256</v>
+      </c>
+      <c r="D431" s="0">
+        <v>65</v>
+      </c>
+      <c r="E431" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>1676592103862</v>
+      </c>
+      <c r="B432" s="0">
+        <v>119607493566356</v>
+      </c>
+      <c r="C432" s="0">
+        <v>256</v>
+      </c>
+      <c r="D432" s="0">
+        <v>65</v>
+      </c>
+      <c r="E432" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>1676592103872</v>
+      </c>
+      <c r="B433" s="0">
+        <v>119607502545787</v>
+      </c>
+      <c r="C433" s="0">
+        <v>257</v>
+      </c>
+      <c r="D433" s="0">
+        <v>66</v>
+      </c>
+      <c r="E433" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>1676592103881</v>
+      </c>
+      <c r="B434" s="0">
+        <v>119607511527111</v>
+      </c>
+      <c r="C434" s="0">
+        <v>257</v>
+      </c>
+      <c r="D434" s="0">
+        <v>66</v>
+      </c>
+      <c r="E434" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>1676592103890</v>
+      </c>
+      <c r="B435" s="0">
+        <v>119607520506359</v>
+      </c>
+      <c r="C435" s="0">
+        <v>257</v>
+      </c>
+      <c r="D435" s="0">
+        <v>66</v>
+      </c>
+      <c r="E435" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>1676592103899</v>
+      </c>
+      <c r="B436" s="0">
+        <v>119607529487681</v>
+      </c>
+      <c r="C436" s="0">
+        <v>258</v>
+      </c>
+      <c r="D436" s="0">
+        <v>67</v>
+      </c>
+      <c r="E436" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>1676592103907</v>
+      </c>
+      <c r="B437" s="0">
+        <v>119607538465587</v>
+      </c>
+      <c r="C437" s="0">
+        <v>258</v>
+      </c>
+      <c r="D437" s="0">
+        <v>67</v>
+      </c>
+      <c r="E437" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>1676592103916</v>
+      </c>
+      <c r="B438" s="0">
+        <v>119607547447887</v>
+      </c>
+      <c r="C438" s="0">
+        <v>259</v>
+      </c>
+      <c r="D438" s="0">
+        <v>67</v>
+      </c>
+      <c r="E438" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>1676592103926</v>
+      </c>
+      <c r="B439" s="0">
+        <v>119607556439891</v>
+      </c>
+      <c r="C439" s="0">
+        <v>259</v>
+      </c>
+      <c r="D439" s="0">
+        <v>67</v>
+      </c>
+      <c r="E439" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>1676592103935</v>
+      </c>
+      <c r="B440" s="0">
+        <v>119607565418163</v>
+      </c>
+      <c r="C440" s="0">
+        <v>259</v>
+      </c>
+      <c r="D440" s="0">
+        <v>67</v>
+      </c>
+      <c r="E440" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>1676592103944</v>
+      </c>
+      <c r="B441" s="0">
+        <v>119607574397289</v>
+      </c>
+      <c r="C441" s="0">
+        <v>257</v>
+      </c>
+      <c r="D441" s="0">
+        <v>66</v>
+      </c>
+      <c r="E441" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>1676592103953</v>
+      </c>
+      <c r="B442" s="0">
+        <v>119607583369213</v>
+      </c>
+      <c r="C442" s="0">
+        <v>257</v>
+      </c>
+      <c r="D442" s="0">
+        <v>66</v>
+      </c>
+      <c r="E442" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>1676592103961</v>
+      </c>
+      <c r="B443" s="0">
+        <v>119607592357006</v>
+      </c>
+      <c r="C443" s="0">
+        <v>256</v>
+      </c>
+      <c r="D443" s="0">
+        <v>67</v>
+      </c>
+      <c r="E443" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>1676592103971</v>
+      </c>
+      <c r="B444" s="0">
+        <v>119607601335399</v>
+      </c>
+      <c r="C444" s="0">
+        <v>256</v>
+      </c>
+      <c r="D444" s="0">
+        <v>67</v>
+      </c>
+      <c r="E444" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>1676592103980</v>
+      </c>
+      <c r="B445" s="0">
+        <v>119607610317089</v>
+      </c>
+      <c r="C445" s="0">
+        <v>256</v>
+      </c>
+      <c r="D445" s="0">
+        <v>67</v>
+      </c>
+      <c r="E445" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>1676592103988</v>
+      </c>
+      <c r="B446" s="0">
+        <v>119607619299571</v>
+      </c>
+      <c r="C446" s="0">
+        <v>257</v>
+      </c>
+      <c r="D446" s="0">
+        <v>67</v>
+      </c>
+      <c r="E446" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>1676592103998</v>
+      </c>
+      <c r="B447" s="0">
+        <v>119607628276866</v>
+      </c>
+      <c r="C447" s="0">
+        <v>258</v>
+      </c>
+      <c r="D447" s="0">
+        <v>67</v>
+      </c>
+      <c r="E447" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>1676592104006</v>
+      </c>
+      <c r="B448" s="0">
+        <v>119607637257823</v>
+      </c>
+      <c r="C448" s="0">
+        <v>260</v>
+      </c>
+      <c r="D448" s="0">
+        <v>67</v>
+      </c>
+      <c r="E448" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>1676592104015</v>
+      </c>
+      <c r="B449" s="0">
+        <v>119607646236827</v>
+      </c>
+      <c r="C449" s="0">
+        <v>262</v>
+      </c>
+      <c r="D449" s="0">
+        <v>67</v>
+      </c>
+      <c r="E449" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>1676592104025</v>
+      </c>
+      <c r="B450" s="0">
+        <v>119607655216808</v>
+      </c>
+      <c r="C450" s="0">
+        <v>264</v>
+      </c>
+      <c r="D450" s="0">
+        <v>67</v>
+      </c>
+      <c r="E450" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>1676592104034</v>
+      </c>
+      <c r="B451" s="0">
+        <v>119607664196300</v>
+      </c>
+      <c r="C451" s="0">
+        <v>266</v>
+      </c>
+      <c r="D451" s="0">
+        <v>66</v>
+      </c>
+      <c r="E451" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>1676592104043</v>
+      </c>
+      <c r="B452" s="0">
+        <v>119607673177989</v>
+      </c>
+      <c r="C452" s="0">
+        <v>268</v>
+      </c>
+      <c r="D452" s="0">
+        <v>66</v>
+      </c>
+      <c r="E452" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>1676592104052</v>
+      </c>
+      <c r="B453" s="0">
+        <v>119607682156261</v>
+      </c>
+      <c r="C453" s="0">
+        <v>270</v>
+      </c>
+      <c r="D453" s="0">
+        <v>65</v>
+      </c>
+      <c r="E453" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>1676592104060</v>
+      </c>
+      <c r="B454" s="0">
+        <v>119607691136242</v>
+      </c>
+      <c r="C454" s="0">
+        <v>271</v>
+      </c>
+      <c r="D454" s="0">
+        <v>64</v>
+      </c>
+      <c r="E454" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>1676592104070</v>
+      </c>
+      <c r="B455" s="0">
+        <v>119607700113719</v>
+      </c>
+      <c r="C455" s="0">
+        <v>272</v>
+      </c>
+      <c r="D455" s="0">
+        <v>64</v>
+      </c>
+      <c r="E455" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>1676592104078</v>
+      </c>
+      <c r="B456" s="0">
+        <v>119607709097667</v>
+      </c>
+      <c r="C456" s="0">
+        <v>272</v>
+      </c>
+      <c r="D456" s="0">
+        <v>65</v>
+      </c>
+      <c r="E456" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>1676592104088</v>
+      </c>
+      <c r="B457" s="0">
+        <v>119607718076244</v>
+      </c>
+      <c r="C457" s="0">
+        <v>272</v>
+      </c>
+      <c r="D457" s="0">
+        <v>66</v>
+      </c>
+      <c r="E457" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>1676592104096</v>
+      </c>
+      <c r="B458" s="0">
+        <v>119607727056652</v>
+      </c>
+      <c r="C458" s="0">
+        <v>272</v>
+      </c>
+      <c r="D458" s="0">
+        <v>67</v>
+      </c>
+      <c r="E458" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>1676592104106</v>
+      </c>
+      <c r="B459" s="0">
+        <v>119607736039318</v>
+      </c>
+      <c r="C459" s="0">
+        <v>271</v>
+      </c>
+      <c r="D459" s="0">
+        <v>68</v>
+      </c>
+      <c r="E459" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>1676592104115</v>
+      </c>
+      <c r="B460" s="0">
+        <v>119607745014598</v>
+      </c>
+      <c r="C460" s="0">
+        <v>271</v>
+      </c>
+      <c r="D460" s="0">
+        <v>69</v>
+      </c>
+      <c r="E460" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>1676592104123</v>
+      </c>
+      <c r="B461" s="0">
+        <v>119607753996288</v>
+      </c>
+      <c r="C461" s="0">
+        <v>271</v>
+      </c>
+      <c r="D461" s="0">
+        <v>69</v>
+      </c>
+      <c r="E461" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>1676592104131</v>
+      </c>
+      <c r="B462" s="0">
+        <v>119607762979014</v>
+      </c>
+      <c r="C462" s="0">
+        <v>271</v>
+      </c>
+      <c r="D462" s="0">
+        <v>69</v>
+      </c>
+      <c r="E462" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>1676592104140</v>
+      </c>
+      <c r="B463" s="0">
+        <v>119607771962474</v>
+      </c>
+      <c r="C463" s="0">
+        <v>271</v>
+      </c>
+      <c r="D463" s="0">
+        <v>69</v>
+      </c>
+      <c r="E463" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>1676592104149</v>
+      </c>
+      <c r="B464" s="0">
+        <v>119607780937328</v>
+      </c>
+      <c r="C464" s="0">
+        <v>271</v>
+      </c>
+      <c r="D464" s="0">
+        <v>68</v>
+      </c>
+      <c r="E464" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0">
+        <v>1676592104158</v>
+      </c>
+      <c r="B465" s="0">
+        <v>119607789912120</v>
+      </c>
+      <c r="C465" s="0">
+        <v>272</v>
+      </c>
+      <c r="D465" s="0">
+        <v>68</v>
+      </c>
+      <c r="E465" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0">
+        <v>1676592104168</v>
+      </c>
+      <c r="B466" s="0">
+        <v>119607798896251</v>
+      </c>
+      <c r="C466" s="0">
+        <v>272</v>
+      </c>
+      <c r="D466" s="0">
+        <v>68</v>
+      </c>
+      <c r="E466" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0">
+        <v>1676592104177</v>
+      </c>
+      <c r="B467" s="0">
+        <v>119607807879284</v>
+      </c>
+      <c r="C467" s="0">
+        <v>273</v>
+      </c>
+      <c r="D467" s="0">
+        <v>67</v>
+      </c>
+      <c r="E467" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0">
+        <v>1676592104186</v>
+      </c>
+      <c r="B468" s="0">
+        <v>119607816857372</v>
+      </c>
+      <c r="C468" s="0">
+        <v>273</v>
+      </c>
+      <c r="D468" s="0">
+        <v>67</v>
+      </c>
+      <c r="E468" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0">
+        <v>1676592104194</v>
+      </c>
+      <c r="B469" s="0">
+        <v>119607825836741</v>
+      </c>
+      <c r="C469" s="0">
+        <v>273</v>
+      </c>
+      <c r="D469" s="0">
+        <v>67</v>
+      </c>
+      <c r="E469" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0">
+        <v>1676592104203</v>
+      </c>
+      <c r="B470" s="0">
+        <v>119607834815685</v>
+      </c>
+      <c r="C470" s="0">
+        <v>273</v>
+      </c>
+      <c r="D470" s="0">
+        <v>67</v>
+      </c>
+      <c r="E470" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0">
+        <v>1676592104213</v>
+      </c>
+      <c r="B471" s="0">
+        <v>119607843796154</v>
+      </c>
+      <c r="C471" s="0">
+        <v>273</v>
+      </c>
+      <c r="D471" s="0">
+        <v>67</v>
+      </c>
+      <c r="E471" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0">
+        <v>1676592104221</v>
+      </c>
+      <c r="B472" s="0">
+        <v>119607852777050</v>
+      </c>
+      <c r="C472" s="0">
+        <v>272</v>
+      </c>
+      <c r="D472" s="0">
+        <v>67</v>
+      </c>
+      <c r="E472" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0">
+        <v>1676592104230</v>
+      </c>
+      <c r="B473" s="0">
+        <v>119607861755809</v>
+      </c>
+      <c r="C473" s="0">
+        <v>271</v>
+      </c>
+      <c r="D473" s="0">
+        <v>67</v>
+      </c>
+      <c r="E473" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0">
+        <v>1676592104239</v>
+      </c>
+      <c r="B474" s="0">
+        <v>119607870735973</v>
+      </c>
+      <c r="C474" s="0">
+        <v>271</v>
+      </c>
+      <c r="D474" s="0">
+        <v>68</v>
+      </c>
+      <c r="E474" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0">
+        <v>1676592104249</v>
+      </c>
+      <c r="B475" s="0">
+        <v>119607879715892</v>
+      </c>
+      <c r="C475" s="0">
+        <v>270</v>
+      </c>
+      <c r="D475" s="0">
+        <v>68</v>
+      </c>
+      <c r="E475" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0">
+        <v>1676592104257</v>
+      </c>
+      <c r="B476" s="0">
+        <v>119607888696971</v>
+      </c>
+      <c r="C476" s="0">
+        <v>269</v>
+      </c>
+      <c r="D476" s="0">
+        <v>68</v>
+      </c>
+      <c r="E476" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0">
+        <v>1676592104267</v>
+      </c>
+      <c r="B477" s="0">
+        <v>119607897675731</v>
+      </c>
+      <c r="C477" s="0">
+        <v>268</v>
+      </c>
+      <c r="D477" s="0">
+        <v>67</v>
+      </c>
+      <c r="E477" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0">
+        <v>1676592104276</v>
+      </c>
+      <c r="B478" s="0">
+        <v>119607906655773</v>
+      </c>
+      <c r="C478" s="0">
+        <v>268</v>
+      </c>
+      <c r="D478" s="0">
+        <v>67</v>
+      </c>
+      <c r="E478" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0">
+        <v>1676592104284</v>
+      </c>
+      <c r="B479" s="0">
+        <v>119607915623851</v>
+      </c>
+      <c r="C479" s="0">
+        <v>267</v>
+      </c>
+      <c r="D479" s="0">
+        <v>67</v>
+      </c>
+      <c r="E479" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0">
+        <v>1676592104294</v>
+      </c>
+      <c r="B480" s="0">
+        <v>119607924616710</v>
+      </c>
+      <c r="C480" s="0">
+        <v>267</v>
+      </c>
+      <c r="D480" s="0">
+        <v>66</v>
+      </c>
+      <c r="E480" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0">
+        <v>1676592104303</v>
+      </c>
+      <c r="B481" s="0">
+        <v>119607933594859</v>
+      </c>
+      <c r="C481" s="0">
+        <v>266</v>
+      </c>
+      <c r="D481" s="0">
+        <v>66</v>
+      </c>
+      <c r="E481" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0">
+        <v>1676592104312</v>
+      </c>
+      <c r="B482" s="0">
+        <v>119607942563915</v>
+      </c>
+      <c r="C482" s="0">
+        <v>266</v>
+      </c>
+      <c r="D482" s="0">
+        <v>66</v>
+      </c>
+      <c r="E482" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0">
+        <v>1676592104321</v>
+      </c>
+      <c r="B483" s="0">
+        <v>119607951556713</v>
+      </c>
+      <c r="C483" s="0">
+        <v>265</v>
+      </c>
+      <c r="D483" s="0">
+        <v>66</v>
+      </c>
+      <c r="E483" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0">
+        <v>1676592104329</v>
+      </c>
+      <c r="B484" s="0">
+        <v>119607960534984</v>
+      </c>
+      <c r="C484" s="0">
+        <v>265</v>
+      </c>
+      <c r="D484" s="0">
+        <v>65</v>
+      </c>
+      <c r="E484" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0">
+        <v>1676592104338</v>
+      </c>
+      <c r="B485" s="0">
+        <v>119607969515392</v>
+      </c>
+      <c r="C485" s="0">
+        <v>264</v>
+      </c>
+      <c r="D485" s="0">
+        <v>65</v>
+      </c>
+      <c r="E485" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0">
+        <v>1676592104348</v>
+      </c>
+      <c r="B486" s="0">
+        <v>119607978495311</v>
+      </c>
+      <c r="C486" s="0">
+        <v>264</v>
+      </c>
+      <c r="D486" s="0">
+        <v>65</v>
+      </c>
+      <c r="E486" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0">
+        <v>1676592104356</v>
+      </c>
+      <c r="B487" s="0">
+        <v>119607987475597</v>
+      </c>
+      <c r="C487" s="0">
+        <v>263</v>
+      </c>
+      <c r="D487" s="0">
+        <v>65</v>
+      </c>
+      <c r="E487" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0">
+        <v>1676592104365</v>
+      </c>
+      <c r="B488" s="0">
+        <v>119607996456554</v>
+      </c>
+      <c r="C488" s="0">
+        <v>263</v>
+      </c>
+      <c r="D488" s="0">
+        <v>65</v>
+      </c>
+      <c r="E488" s="0">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/Data/IMUReadingsClip/DefenderDrag2bNeutral.xlsx
+++ b/Data/IMUReadingsClip/DefenderDrag2bNeutral.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>utcTimeMillis</t>
   </si>
@@ -176,6 +176,69 @@
   <si>
     <t>pitchDeg</t>
   </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>UncalAccelXMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelYMps2</t>
+  </si>
+  <si>
+    <t>UncalAccelZMps2</t>
+  </si>
+  <si>
+    <t>BiasXMps2</t>
+  </si>
+  <si>
+    <t>BiasYMps2</t>
+  </si>
+  <si>
+    <t>BiasZMps2</t>
+  </si>
+  <si>
+    <t>CalAccelXMps2</t>
+  </si>
+  <si>
+    <t>CalAccelYMps2</t>
+  </si>
+  <si>
+    <t>CalAccelZMps2</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
+  <si>
+    <t>utcTimeMillis</t>
+  </si>
+  <si>
+    <t>elapsedRealtimeNanos</t>
+  </si>
+  <si>
+    <t>yawDeg</t>
+  </si>
+  <si>
+    <t>rollDeg</t>
+  </si>
+  <si>
+    <t>pitchDeg</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -210,11 +273,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -223,6 +289,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,37 +319,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -17346,19 +17415,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -25658,19 +25727,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
